--- a/rill-analysis/rill-analysis-report-core/src/test/resources/nu/com/rill/analysis/report/excel/bridge_kpi.xlsx
+++ b/rill-analysis/rill-analysis-report-core/src/test/resources/nu/com/rill/analysis/report/excel/bridge_kpi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="8220"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="8220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="3" r:id="rId1"/>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="102">
   <si>
     <t>SELECT {Hierarchize({[Measures].[LoginUser Cnt]})} ON COLUMNS, {Hierarchize({[Time].[2012].[Q3].[09].[05]})} ON ROWS FROM [bridge-kpi]</t>
   </si>
@@ -474,10 +474,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[Time].[2012].[Q3].[09].[05]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mdx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -487,6 +483,18 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012-09-05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -691,7 +699,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -728,6 +736,9 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -763,7 +774,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1024,24 +1034,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="87151360"/>
-        <c:axId val="87152896"/>
+        <c:axId val="84398848"/>
+        <c:axId val="84400384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87151360"/>
+        <c:axId val="84398848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87152896"/>
+        <c:crossAx val="84400384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87152896"/>
+        <c:axId val="84400384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1049,14 +1059,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87151360"/>
+        <c:crossAx val="84398848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1067,7 +1076,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1093,7 +1102,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1354,24 +1362,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="87513344"/>
-        <c:axId val="87539712"/>
+        <c:axId val="86464768"/>
+        <c:axId val="86491136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87513344"/>
+        <c:axId val="86464768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87539712"/>
+        <c:crossAx val="86491136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87539712"/>
+        <c:axId val="86491136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1379,14 +1387,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87513344"/>
+        <c:crossAx val="86464768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1397,7 +1404,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1755,7 +1762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -1767,16 +1774,19 @@
     <col min="11" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="22.5" customHeight="1">
+    <row r="1" spans="2:17" ht="22.5" customHeight="1">
       <c r="B1" s="9" t="str">
         <f>"商桥KPI数据 - "&amp;_input!A3&amp;_input!A2</f>
         <v>商桥KPI数据 - 05日</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="2:15" ht="6" customHeight="1"/>
-    <row r="3" spans="2:15">
+      <c r="Q1" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17" ht="6" customHeight="1"/>
+    <row r="3" spans="2:17">
       <c r="B3" s="11" t="s">
         <v>85</v>
       </c>
@@ -1790,7 +1800,7 @@
       </c>
       <c r="L3" s="10"/>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:17">
       <c r="B4" s="6" t="s">
         <v>82</v>
       </c>
@@ -1809,7 +1819,7 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="2:15" ht="16.5" customHeight="1">
+    <row r="5" spans="2:17" ht="16.5" customHeight="1">
       <c r="B5" s="7" t="str">
         <f>_input!B2</f>
         <v>登陆用户量</v>
@@ -1859,16 +1869,21 @@
         <v>6438</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="12" customHeight="1"/>
-    <row r="7" spans="2:15">
+    <row r="6" spans="2:17" ht="12" customHeight="1"/>
+    <row r="7" spans="2:17">
       <c r="B7" s="11" t="s">
         <v>86</v>
       </c>
       <c r="C7" s="11"/>
     </row>
-    <row r="27" spans="17:17">
+    <row r="26" spans="16:17">
+      <c r="P26" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="16:17">
       <c r="Q27" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1892,7 +1907,7 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1912,13 +1927,13 @@
         <v>87</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>96</v>
+      <c r="E1" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>95</v>
@@ -1958,7 +1973,7 @@
         <v>94</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/rill-analysis/rill-analysis-report-core/src/test/resources/nu/com/rill/analysis/report/excel/bridge_kpi.xlsx
+++ b/rill-analysis/rill-analysis-report-core/src/test/resources/nu/com/rill/analysis/report/excel/bridge_kpi.xlsx
@@ -1086,16 +1086,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1107,25 +1104,28 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1291,115 +1291,115 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>4538</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2064</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>773</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3159</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1197</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>187</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7132</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2859</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5897</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>302</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>93</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2679</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2444</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6389</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1025</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9582</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>59</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>582</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2678</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6475</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4223</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1888</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6447</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>27396</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4841</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3400</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10493</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1567</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2152</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1343</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2144</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1752</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>313</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>126</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1761</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1545,115 +1545,115 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>1986</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1095</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>331</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1201</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>542</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>108</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3074</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1212</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2126</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>137</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1240</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1138</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2940</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>449</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4015</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>248</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1516</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3300</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1982</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>842</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2526</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>13188</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>157</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2361</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1598</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4928</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>737</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1084</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>602</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>871</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>772</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>99</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>70</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>793</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1799,115 +1799,115 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>1799</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>995</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>286</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1141</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>480</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2863</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>991</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1676</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>108</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1094</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2699</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>358</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3691</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>182</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1239</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2492</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1531</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>755</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2215</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12224</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>137</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2066</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1454</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4304</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>614</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>941</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>451</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>809</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>573</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>51</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>724</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3069,115 +3069,115 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>1001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>599</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>150</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>689</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>190</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1248</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>652</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>860</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>76</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>526</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>525</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1126</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>200</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1565</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>149</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1032</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2023</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1156</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>361</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1099</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5242</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>95</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1159</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>719</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1896</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>318</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>530</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>253</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>370</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>311</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>47</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>49</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>418</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3323,115 +3323,115 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>232</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>127</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>301</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>302</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>153</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>276</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>115</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>141</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>179</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>379</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>498</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>614</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>232</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>106</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>235</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1221</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>74</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>224</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>182</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>446</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>87</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>102</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>53</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>95</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>108</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>134</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3577,139 +3577,139 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>1150</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>672</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>177</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>872</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>220</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>78</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1481</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>743</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1052</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>618</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>611</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1256</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>227</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1834</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>171</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1213</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2327</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1262</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>429</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1234</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6090</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>146</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1291</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>829</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2217</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>371</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>580</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>287</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>442</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>382</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>60</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>54</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>498</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="79657216"/>
-        <c:axId val="79663488"/>
+        <c:axId val="42360832"/>
+        <c:axId val="42362368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79657216"/>
+        <c:axId val="42360832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79663488"/>
+        <c:crossAx val="42362368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79663488"/>
+        <c:axId val="42362368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3717,7 +3717,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79657216"/>
+        <c:crossAx val="42360832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3730,7 +3730,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3884,52 +3884,52 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>12477</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1074</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>430</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15686</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1414</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4944</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1624</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2765</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9042</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1912</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22835</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>764</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>214</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -3938,61 +3938,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11782</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1183</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7934</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6652</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6503</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>176</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5038</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2841</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>371</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2015</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>466</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4586</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1223</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2748</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>30</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>179</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1492</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4138,52 +4138,52 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>4917</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>465</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>184</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5957</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>601</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2291</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>742</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1338</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4352</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>775</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11525</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>363</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>108</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -4192,61 +4192,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5252</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>474</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3928</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3214</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3410</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>96</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2243</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1324</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>155</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>979</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>187</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1950</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>562</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1176</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>84</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4392,52 +4392,52 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>4095</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>421</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>164</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4826</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>548</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1976</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>650</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1210</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>719</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9985</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>311</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>81</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -4446,61 +4446,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4789</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>439</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3643</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2947</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3070</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>65</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1159</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>142</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>823</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>167</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1752</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>474</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1023</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>69</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>588</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5662,52 +5662,52 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>1962</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>206</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2590</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>298</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1071</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>342</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>629</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2137</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>338</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5196</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>154</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>59</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -5716,61 +5716,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2044</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>210</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1863</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1542</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1649</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>49</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>942</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>68</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>457</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>76</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>902</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>270</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>564</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>40</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>344</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5916,52 +5916,52 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>517</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>873</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>92</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>267</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>86</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>186</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>521</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>109</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1022</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>56</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -5970,61 +5970,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>539</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>70</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>342</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>400</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>421</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>287</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>194</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>123</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>29</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>275</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>81</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>160</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>96</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6170,52 +6170,52 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>2316</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>236</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3104</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>355</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1239</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>404</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>745</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2457</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>414</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5729</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>188</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>69</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -6224,85 +6224,85 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2432</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>256</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2085</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1775</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1911</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>55</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1116</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>795</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>79</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>529</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>95</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1102</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>312</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>664</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>46</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>406</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="79934208"/>
-        <c:axId val="79935744"/>
+        <c:axId val="42422272"/>
+        <c:axId val="42423808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79934208"/>
+        <c:axId val="42422272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79935744"/>
+        <c:crossAx val="42423808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79935744"/>
+        <c:axId val="42423808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6310,19 +6310,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79934208"/>
+        <c:crossAx val="42422272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6697,15 +6698,15 @@
   <sheetData>
     <row r="1" spans="1:31" ht="6.75" customHeight="1"/>
     <row r="2" spans="1:31" ht="16.5" customHeight="1">
-      <c r="B2" s="35" t="str">
+      <c r="B2" s="45" t="str">
         <f>"商桥KPI数据 - "&amp;_input!A3&amp;_input!A2</f>
         <v>商桥KPI数据 - 08日</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
       <c r="H2" s="32"/>
       <c r="I2" s="32"/>
       <c r="J2" s="8"/>
@@ -6733,65 +6734,65 @@
     </row>
     <row r="3" spans="1:31" ht="16.5" customHeight="1"/>
     <row r="4" spans="1:31" ht="16.5" customHeight="1">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
     </row>
     <row r="5" spans="1:31" ht="16.5" customHeight="1">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="37" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="37" t="s">
+      <c r="F5" s="37"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="39"/>
-      <c r="O5" s="33" t="s">
+      <c r="I5" s="37"/>
+      <c r="J5" s="38"/>
+      <c r="O5" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="P5" s="33"/>
-      <c r="U5" s="33" t="s">
+      <c r="P5" s="43"/>
+      <c r="U5" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="V5" s="33"/>
+      <c r="V5" s="43"/>
     </row>
     <row r="6" spans="1:31" ht="16.5" customHeight="1">
-      <c r="B6" s="40" t="str">
+      <c r="B6" s="41" t="str">
         <f>_input!B2</f>
         <v>用户登录量</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42">
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="39">
         <f>_input!B3</f>
-        <v>59342</v>
-      </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44">
+        <v>0</v>
+      </c>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="33">
         <f>_input!J223</f>
-        <v>-0.20087800805289591</v>
-      </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="46"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="34"/>
+      <c r="J6" s="35"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="11"/>
@@ -6847,50 +6848,50 @@
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
       <c r="J7" s="23"/>
-      <c r="L7" s="37" t="s">
+      <c r="L7" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="39"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="38"/>
       <c r="O7" s="13">
         <f>_input!B7</f>
-        <v>13188</v>
+        <v>0</v>
       </c>
       <c r="P7" s="13">
         <f>_input!C7</f>
-        <v>4928</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="13">
         <f>_input!D7</f>
-        <v>4015</v>
+        <v>0</v>
       </c>
       <c r="R7" s="13">
         <f>_input!E7</f>
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="S7" s="13">
         <f>_input!F7</f>
-        <v>3074</v>
+        <v>0</v>
       </c>
       <c r="U7" s="13">
         <f>_input!B12</f>
-        <v>11525</v>
+        <v>0</v>
       </c>
       <c r="V7" s="13">
         <f>_input!C12</f>
-        <v>5957</v>
+        <v>0</v>
       </c>
       <c r="W7" s="13">
         <f>_input!D12</f>
-        <v>5252</v>
+        <v>0</v>
       </c>
       <c r="X7" s="13">
         <f>_input!E12</f>
-        <v>4917</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="13">
         <f>_input!F12</f>
-        <v>4352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="16.5" customHeight="1">
@@ -6904,50 +6905,50 @@
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
       <c r="J8" s="26"/>
-      <c r="L8" s="37" t="s">
+      <c r="L8" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="M8" s="38"/>
-      <c r="N8" s="39"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="38"/>
       <c r="O8" s="14">
         <f>_input!B8</f>
-        <v>0.22223720130767416</v>
+        <v>0</v>
       </c>
       <c r="P8" s="14">
         <f>_input!C8</f>
-        <v>8.3044049745542789E-2</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="14">
         <f>_input!D8</f>
-        <v>6.7658656600721248E-2</v>
+        <v>0</v>
       </c>
       <c r="R8" s="14">
         <f>_input!E8</f>
-        <v>5.5609854740318827E-2</v>
+        <v>0</v>
       </c>
       <c r="S8" s="14">
         <f>_input!F8</f>
-        <v>5.1801422264163663E-2</v>
+        <v>0</v>
       </c>
       <c r="U8" s="14">
         <f>_input!B13</f>
-        <v>0.19421320481278015</v>
+        <v>0</v>
       </c>
       <c r="V8" s="14">
         <f>_input!C13</f>
-        <v>0.1003842135418422</v>
+        <v>0</v>
       </c>
       <c r="W8" s="14">
         <f>_input!D13</f>
-        <v>8.8503926392774088E-2</v>
+        <v>0</v>
       </c>
       <c r="X8" s="14">
         <f>_input!E13</f>
-        <v>8.2858683563075061E-2</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="14">
         <f>_input!F13</f>
-        <v>7.3337602372687133E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="6" customHeight="1">
@@ -6978,24 +6979,24 @@
       <c r="Y9" s="28"/>
     </row>
     <row r="10" spans="1:31" ht="16.5" customHeight="1">
-      <c r="B10" s="40" t="str">
+      <c r="B10" s="41" t="str">
         <f>_input!B96</f>
         <v>使用量</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42">
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="39">
         <f>_input!B97</f>
-        <v>59342</v>
-      </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="44">
+        <v>0</v>
+      </c>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="33">
         <f>_input!K223</f>
-        <v>7.5942958400143645E-4</v>
-      </c>
-      <c r="I10" s="45"/>
-      <c r="J10" s="46"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="34"/>
+      <c r="J10" s="35"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10" s="11"/>
@@ -7051,50 +7052,50 @@
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
       <c r="J11" s="23"/>
-      <c r="L11" s="37" t="s">
+      <c r="L11" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="M11" s="38"/>
-      <c r="N11" s="39"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="38"/>
       <c r="O11" s="13">
         <f>_input!B101</f>
-        <v>13188</v>
+        <v>0</v>
       </c>
       <c r="P11" s="13">
         <f>_input!C101</f>
-        <v>4928</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="13">
         <f>_input!D101</f>
-        <v>4015</v>
+        <v>0</v>
       </c>
       <c r="R11" s="13">
         <f>_input!E101</f>
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="S11" s="13">
         <f>_input!F101</f>
-        <v>3074</v>
+        <v>0</v>
       </c>
       <c r="U11" s="13">
         <f>_input!B106</f>
-        <v>11525</v>
+        <v>0</v>
       </c>
       <c r="V11" s="13">
         <f>_input!C106</f>
-        <v>5957</v>
+        <v>0</v>
       </c>
       <c r="W11" s="13">
         <f>_input!D106</f>
-        <v>5252</v>
+        <v>0</v>
       </c>
       <c r="X11" s="13">
         <f>_input!E106</f>
-        <v>4917</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="13">
         <f>_input!F106</f>
-        <v>4352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="16.5" customHeight="1">
@@ -7108,50 +7109,50 @@
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
       <c r="J12" s="26"/>
-      <c r="L12" s="37" t="s">
+      <c r="L12" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="M12" s="38"/>
-      <c r="N12" s="39"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="38"/>
       <c r="O12" s="14">
         <f>_input!B102</f>
-        <v>0.22223720130767416</v>
+        <v>0</v>
       </c>
       <c r="P12" s="14">
         <f>_input!C102</f>
-        <v>8.3044049745542789E-2</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="14">
         <f>_input!D102</f>
-        <v>6.7658656600721248E-2</v>
+        <v>0</v>
       </c>
       <c r="R12" s="14">
         <f>_input!E102</f>
-        <v>5.5609854740318827E-2</v>
+        <v>0</v>
       </c>
       <c r="S12" s="14">
         <f>_input!F102</f>
-        <v>5.1801422264163663E-2</v>
+        <v>0</v>
       </c>
       <c r="U12" s="14">
         <f>_input!B107</f>
-        <v>0.19421320481278015</v>
+        <v>0</v>
       </c>
       <c r="V12" s="14">
         <f>_input!C107</f>
-        <v>0.1003842135418422</v>
+        <v>0</v>
       </c>
       <c r="W12" s="14">
         <f>_input!D107</f>
-        <v>8.8503926392774088E-2</v>
+        <v>0</v>
       </c>
       <c r="X12" s="14">
         <f>_input!E107</f>
-        <v>8.2858683563075061E-2</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="14">
         <f>_input!F107</f>
-        <v>7.3337602372687133E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="6" customHeight="1">
@@ -7182,24 +7183,24 @@
       <c r="Y13" s="28"/>
     </row>
     <row r="14" spans="1:31" ht="16.5" customHeight="1">
-      <c r="B14" s="40" t="str">
+      <c r="B14" s="41" t="str">
         <f>_input!B110</f>
         <v>主账号登录数</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="42">
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="39">
         <f>_input!B111</f>
-        <v>59342</v>
-      </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="44">
+        <v>0</v>
+      </c>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="33">
         <f>_input!H223</f>
-        <v>-0.22004875349574526</v>
-      </c>
-      <c r="I14" s="45"/>
-      <c r="J14" s="46"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="34"/>
+      <c r="J14" s="35"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="11"/>
@@ -7255,50 +7256,50 @@
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
       <c r="J15" s="23"/>
-      <c r="L15" s="37" t="s">
+      <c r="L15" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="M15" s="38"/>
-      <c r="N15" s="39"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="38"/>
       <c r="O15" s="13">
         <f>_input!B115</f>
-        <v>13188</v>
+        <v>0</v>
       </c>
       <c r="P15" s="13">
         <f>_input!C115</f>
-        <v>4928</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="13">
         <f>_input!D115</f>
-        <v>4015</v>
+        <v>0</v>
       </c>
       <c r="R15" s="13">
         <f>_input!E115</f>
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="S15" s="13">
         <f>_input!F115</f>
-        <v>3074</v>
+        <v>0</v>
       </c>
       <c r="U15" s="13">
         <f>_input!B120</f>
-        <v>11525</v>
+        <v>0</v>
       </c>
       <c r="V15" s="13">
         <f>_input!C120</f>
-        <v>5957</v>
+        <v>0</v>
       </c>
       <c r="W15" s="13">
         <f>_input!D120</f>
-        <v>5252</v>
+        <v>0</v>
       </c>
       <c r="X15" s="13">
         <f>_input!E120</f>
-        <v>4917</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="13">
         <f>_input!F120</f>
-        <v>4352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="16.5" customHeight="1">
@@ -7312,50 +7313,50 @@
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="26"/>
-      <c r="L16" s="37" t="s">
+      <c r="L16" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="M16" s="38"/>
-      <c r="N16" s="39"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="38"/>
       <c r="O16" s="14">
         <f>_input!B116</f>
-        <v>0.22223720130767416</v>
+        <v>0</v>
       </c>
       <c r="P16" s="14">
         <f>_input!C116</f>
-        <v>8.3044049745542789E-2</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="14">
         <f>_input!D116</f>
-        <v>6.7658656600721248E-2</v>
+        <v>0</v>
       </c>
       <c r="R16" s="14">
         <f>_input!E116</f>
-        <v>5.5609854740318827E-2</v>
+        <v>0</v>
       </c>
       <c r="S16" s="14">
         <f>_input!F116</f>
-        <v>5.1801422264163663E-2</v>
+        <v>0</v>
       </c>
       <c r="U16" s="14">
         <f>_input!B121</f>
-        <v>0.19421320481278015</v>
+        <v>0</v>
       </c>
       <c r="V16" s="14">
         <f>_input!C121</f>
-        <v>0.1003842135418422</v>
+        <v>0</v>
       </c>
       <c r="W16" s="14">
         <f>_input!D121</f>
-        <v>8.8503926392774088E-2</v>
+        <v>0</v>
       </c>
       <c r="X16" s="14">
         <f>_input!E121</f>
-        <v>8.2858683563075061E-2</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="14">
         <f>_input!F121</f>
-        <v>7.3337602372687133E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="6" customHeight="1">
@@ -7386,24 +7387,24 @@
       <c r="Y17" s="28"/>
     </row>
     <row r="18" spans="1:25" ht="16.5" customHeight="1">
-      <c r="B18" s="40" t="str">
+      <c r="B18" s="41" t="str">
         <f>_input!B124</f>
         <v>子账号登录数</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="42">
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="39">
         <f>_input!B125</f>
-        <v>59342</v>
-      </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="44">
+        <v>0</v>
+      </c>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="33">
         <f>_input!I223</f>
         <v>0</v>
       </c>
-      <c r="I18" s="45"/>
-      <c r="J18" s="46"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="35"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
       <c r="N18" s="11"/>
@@ -7459,50 +7460,50 @@
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
       <c r="J19" s="23"/>
-      <c r="L19" s="37" t="s">
+      <c r="L19" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="M19" s="38"/>
-      <c r="N19" s="39"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="38"/>
       <c r="O19" s="13">
         <f>_input!B129</f>
-        <v>13188</v>
+        <v>0</v>
       </c>
       <c r="P19" s="13">
         <f>_input!C129</f>
-        <v>4928</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="13">
         <f>_input!D129</f>
-        <v>4015</v>
+        <v>0</v>
       </c>
       <c r="R19" s="13">
         <f>_input!E129</f>
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="S19" s="13">
         <f>_input!F129</f>
-        <v>3074</v>
+        <v>0</v>
       </c>
       <c r="U19" s="13">
         <f>_input!B134</f>
-        <v>11525</v>
+        <v>0</v>
       </c>
       <c r="V19" s="13">
         <f>_input!C134</f>
-        <v>5957</v>
+        <v>0</v>
       </c>
       <c r="W19" s="13">
         <f>_input!D134</f>
-        <v>5252</v>
+        <v>0</v>
       </c>
       <c r="X19" s="13">
         <f>_input!E134</f>
-        <v>4917</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="13">
         <f>_input!F134</f>
-        <v>4352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="16.5" customHeight="1">
@@ -7516,50 +7517,50 @@
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
       <c r="J20" s="26"/>
-      <c r="L20" s="37" t="s">
+      <c r="L20" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="M20" s="38"/>
-      <c r="N20" s="39"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="38"/>
       <c r="O20" s="14">
         <f>_input!B130</f>
-        <v>0.22223720130767416</v>
+        <v>0</v>
       </c>
       <c r="P20" s="14">
         <f>_input!C130</f>
-        <v>8.3044049745542789E-2</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="14">
         <f>_input!D130</f>
-        <v>6.7658656600721248E-2</v>
+        <v>0</v>
       </c>
       <c r="R20" s="14">
         <f>_input!E130</f>
-        <v>5.5609854740318827E-2</v>
+        <v>0</v>
       </c>
       <c r="S20" s="14">
         <f>_input!F130</f>
-        <v>5.1801422264163663E-2</v>
+        <v>0</v>
       </c>
       <c r="U20" s="14">
         <f>_input!B135</f>
-        <v>0.19421320481278015</v>
+        <v>0</v>
       </c>
       <c r="V20" s="14">
         <f>_input!C135</f>
-        <v>0.1003842135418422</v>
+        <v>0</v>
       </c>
       <c r="W20" s="14">
         <f>_input!D135</f>
-        <v>8.8503926392774088E-2</v>
+        <v>0</v>
       </c>
       <c r="X20" s="14">
         <f>_input!E135</f>
-        <v>8.2858683563075061E-2</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="14">
         <f>_input!F135</f>
-        <v>7.3337602372687133E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="6" customHeight="1">
@@ -7590,24 +7591,24 @@
       <c r="Y21" s="28"/>
     </row>
     <row r="22" spans="1:25" ht="16.5" customHeight="1">
-      <c r="B22" s="40" t="str">
+      <c r="B22" s="41" t="str">
         <f>_input!B138</f>
         <v>有商机客户数</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="42">
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="39">
         <f>_input!B139</f>
-        <v>59342</v>
-      </c>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="44">
+        <v>0</v>
+      </c>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="33">
         <f>_input!G223</f>
-        <v>-0.20099871892075605</v>
-      </c>
-      <c r="I22" s="45"/>
-      <c r="J22" s="46"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="34"/>
+      <c r="J22" s="35"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
       <c r="N22" s="11"/>
@@ -7663,50 +7664,50 @@
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
       <c r="J23" s="23"/>
-      <c r="L23" s="37" t="s">
+      <c r="L23" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="M23" s="38"/>
-      <c r="N23" s="39"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="38"/>
       <c r="O23" s="13">
         <f>_input!B143</f>
-        <v>13188</v>
+        <v>0</v>
       </c>
       <c r="P23" s="13">
         <f>_input!C143</f>
-        <v>4928</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="13">
         <f>_input!D143</f>
-        <v>4015</v>
+        <v>0</v>
       </c>
       <c r="R23" s="13">
         <f>_input!E143</f>
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="S23" s="13">
         <f>_input!F143</f>
-        <v>3074</v>
+        <v>0</v>
       </c>
       <c r="U23" s="13">
         <f>_input!B148</f>
-        <v>11525</v>
+        <v>0</v>
       </c>
       <c r="V23" s="13">
         <f>_input!C148</f>
-        <v>5957</v>
+        <v>0</v>
       </c>
       <c r="W23" s="13">
         <f>_input!D148</f>
-        <v>5252</v>
+        <v>0</v>
       </c>
       <c r="X23" s="13">
         <f>_input!E148</f>
-        <v>4917</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="13">
         <f>_input!F148</f>
-        <v>4352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="16.5" customHeight="1">
@@ -7720,50 +7721,50 @@
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
       <c r="J24" s="26"/>
-      <c r="L24" s="37" t="s">
+      <c r="L24" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="M24" s="38"/>
-      <c r="N24" s="39"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="38"/>
       <c r="O24" s="14">
         <f>_input!B144</f>
-        <v>0.22223720130767416</v>
+        <v>0</v>
       </c>
       <c r="P24" s="14">
         <f>_input!C144</f>
-        <v>8.3044049745542789E-2</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="14">
         <f>_input!D144</f>
-        <v>6.7658656600721248E-2</v>
+        <v>0</v>
       </c>
       <c r="R24" s="14">
         <f>_input!E144</f>
-        <v>5.5609854740318827E-2</v>
+        <v>0</v>
       </c>
       <c r="S24" s="14">
         <f>_input!F144</f>
-        <v>5.1801422264163663E-2</v>
+        <v>0</v>
       </c>
       <c r="U24" s="14">
         <f>_input!B149</f>
-        <v>0.19421320481278015</v>
+        <v>0</v>
       </c>
       <c r="V24" s="14">
         <f>_input!C149</f>
-        <v>0.1003842135418422</v>
+        <v>0</v>
       </c>
       <c r="W24" s="14">
         <f>_input!D149</f>
-        <v>8.8503926392774088E-2</v>
+        <v>0</v>
       </c>
       <c r="X24" s="14">
         <f>_input!E149</f>
-        <v>8.2858683563075061E-2</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="14">
         <f>_input!F149</f>
-        <v>7.3337602372687133E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="6" customHeight="1">
@@ -7795,24 +7796,24 @@
     </row>
     <row r="26" spans="1:25" ht="16.5" customHeight="1">
       <c r="A26" s="9"/>
-      <c r="B26" s="40" t="str">
+      <c r="B26" s="41" t="str">
         <f>_input!B152</f>
         <v>有沟通客户数</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="42">
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="39">
         <f>_input!B153</f>
-        <v>59342</v>
-      </c>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="44">
+        <v>0</v>
+      </c>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="33">
         <f>_input!E223</f>
-        <v>-0.30076603309890459</v>
-      </c>
-      <c r="I26" s="45"/>
-      <c r="J26" s="46"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
       <c r="K26" s="28"/>
       <c r="L26" s="28"/>
       <c r="M26" s="28"/>
@@ -7869,50 +7870,50 @@
       <c r="H27" s="28"/>
       <c r="I27" s="28"/>
       <c r="J27" s="23"/>
-      <c r="L27" s="37" t="s">
+      <c r="L27" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="M27" s="38"/>
-      <c r="N27" s="39"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="38"/>
       <c r="O27" s="13">
         <f>_input!B157</f>
-        <v>13188</v>
+        <v>0</v>
       </c>
       <c r="P27" s="13">
         <f>_input!C157</f>
-        <v>4928</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="13">
         <f>_input!D157</f>
-        <v>4015</v>
+        <v>0</v>
       </c>
       <c r="R27" s="13">
         <f>_input!E157</f>
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="S27" s="13">
         <f>_input!F157</f>
-        <v>3074</v>
+        <v>0</v>
       </c>
       <c r="U27" s="13">
         <f>_input!B162</f>
-        <v>11525</v>
+        <v>0</v>
       </c>
       <c r="V27" s="13">
         <f>_input!C162</f>
-        <v>5957</v>
+        <v>0</v>
       </c>
       <c r="W27" s="13">
         <f>_input!D162</f>
-        <v>5252</v>
+        <v>0</v>
       </c>
       <c r="X27" s="13">
         <f>_input!E162</f>
-        <v>4917</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="13">
         <f>_input!F162</f>
-        <v>4352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="16.5" customHeight="1">
@@ -7926,50 +7927,50 @@
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
       <c r="J28" s="26"/>
-      <c r="L28" s="37" t="s">
+      <c r="L28" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="M28" s="38"/>
-      <c r="N28" s="39"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="38"/>
       <c r="O28" s="14">
         <f>_input!B158</f>
-        <v>0.22223720130767416</v>
+        <v>0</v>
       </c>
       <c r="P28" s="14">
         <f>_input!C158</f>
-        <v>8.3044049745542789E-2</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="14">
         <f>_input!D158</f>
-        <v>6.7658656600721248E-2</v>
+        <v>0</v>
       </c>
       <c r="R28" s="14">
         <f>_input!E158</f>
-        <v>5.5609854740318827E-2</v>
+        <v>0</v>
       </c>
       <c r="S28" s="14">
         <f>_input!F158</f>
-        <v>5.1801422264163663E-2</v>
+        <v>0</v>
       </c>
       <c r="U28" s="14">
         <f>_input!B163</f>
-        <v>0.19421320481278015</v>
+        <v>0</v>
       </c>
       <c r="V28" s="14">
         <f>_input!C163</f>
-        <v>0.1003842135418422</v>
+        <v>0</v>
       </c>
       <c r="W28" s="14">
         <f>_input!D163</f>
-        <v>8.8503926392774088E-2</v>
+        <v>0</v>
       </c>
       <c r="X28" s="14">
         <f>_input!E163</f>
-        <v>8.2858683563075061E-2</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="14">
         <f>_input!F163</f>
-        <v>7.3337602372687133E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="6" customHeight="1">
@@ -8000,24 +8001,24 @@
       <c r="Y29" s="28"/>
     </row>
     <row r="30" spans="1:25" ht="16.5" customHeight="1">
-      <c r="B30" s="40" t="str">
+      <c r="B30" s="41" t="str">
         <f>_input!B166</f>
         <v>有留言客户数</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="42">
+      <c r="C30" s="41"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="39">
         <f>_input!B167</f>
-        <v>59342</v>
-      </c>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="44">
+        <v>0</v>
+      </c>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="33">
         <f>_input!F223</f>
         <v>0</v>
       </c>
-      <c r="I30" s="45"/>
-      <c r="J30" s="46"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="35"/>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
       <c r="N30" s="11"/>
@@ -8073,50 +8074,50 @@
       <c r="H31" s="28"/>
       <c r="I31" s="28"/>
       <c r="J31" s="23"/>
-      <c r="L31" s="37" t="s">
+      <c r="L31" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="M31" s="38"/>
-      <c r="N31" s="39"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="38"/>
       <c r="O31" s="13">
         <f>_input!B171</f>
-        <v>13188</v>
+        <v>0</v>
       </c>
       <c r="P31" s="13">
         <f>_input!C171</f>
-        <v>4928</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="13">
         <f>_input!D171</f>
-        <v>4015</v>
+        <v>0</v>
       </c>
       <c r="R31" s="13">
         <f>_input!E171</f>
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="S31" s="13">
         <f>_input!F171</f>
-        <v>3074</v>
+        <v>0</v>
       </c>
       <c r="U31" s="13">
         <f>_input!B176</f>
-        <v>11525</v>
+        <v>0</v>
       </c>
       <c r="V31" s="13">
         <f>_input!C176</f>
-        <v>5957</v>
+        <v>0</v>
       </c>
       <c r="W31" s="13">
         <f>_input!D176</f>
-        <v>5252</v>
+        <v>0</v>
       </c>
       <c r="X31" s="13">
         <f>_input!E176</f>
-        <v>4917</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="13">
         <f>_input!F176</f>
-        <v>4352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="16.5" customHeight="1">
@@ -8130,50 +8131,50 @@
       <c r="H32" s="25"/>
       <c r="I32" s="25"/>
       <c r="J32" s="26"/>
-      <c r="L32" s="37" t="s">
+      <c r="L32" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="M32" s="38"/>
-      <c r="N32" s="39"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="38"/>
       <c r="O32" s="14">
         <f>_input!B172</f>
-        <v>0.22223720130767416</v>
+        <v>0</v>
       </c>
       <c r="P32" s="14">
         <f>_input!C172</f>
-        <v>8.3044049745542789E-2</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="14">
         <f>_input!D172</f>
-        <v>6.7658656600721248E-2</v>
+        <v>0</v>
       </c>
       <c r="R32" s="14">
         <f>_input!E172</f>
-        <v>5.5609854740318827E-2</v>
+        <v>0</v>
       </c>
       <c r="S32" s="14">
         <f>_input!F172</f>
-        <v>5.1801422264163663E-2</v>
+        <v>0</v>
       </c>
       <c r="U32" s="14">
         <f>_input!B177</f>
-        <v>0.19421320481278015</v>
+        <v>0</v>
       </c>
       <c r="V32" s="14">
         <f>_input!C177</f>
-        <v>0.1003842135418422</v>
+        <v>0</v>
       </c>
       <c r="W32" s="14">
         <f>_input!D177</f>
-        <v>8.8503926392774088E-2</v>
+        <v>0</v>
       </c>
       <c r="X32" s="14">
         <f>_input!E177</f>
-        <v>8.2858683563075061E-2</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="14">
         <f>_input!F177</f>
-        <v>7.3337602372687133E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="6" customHeight="1">
@@ -8204,24 +8205,24 @@
       <c r="Y33" s="28"/>
     </row>
     <row r="34" spans="1:25" ht="16.5" customHeight="1">
-      <c r="B34" s="40" t="str">
+      <c r="B34" s="41" t="str">
         <f>_input!B180</f>
         <v>活跃主账号数</v>
       </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42">
+      <c r="C34" s="41"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="39">
         <f>_input!B181</f>
-        <v>59342</v>
-      </c>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="44">
+        <v>0</v>
+      </c>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="33">
         <f>_input!B223</f>
         <v>0</v>
       </c>
-      <c r="I34" s="45"/>
-      <c r="J34" s="46"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="35"/>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
       <c r="N34" s="11"/>
@@ -8277,50 +8278,50 @@
       <c r="H35" s="28"/>
       <c r="I35" s="28"/>
       <c r="J35" s="23"/>
-      <c r="L35" s="37" t="s">
+      <c r="L35" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="M35" s="38"/>
-      <c r="N35" s="39"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="38"/>
       <c r="O35" s="13">
         <f>_input!B185</f>
-        <v>13188</v>
+        <v>0</v>
       </c>
       <c r="P35" s="13">
         <f>_input!C185</f>
-        <v>4928</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="13">
         <f>_input!D185</f>
-        <v>4015</v>
+        <v>0</v>
       </c>
       <c r="R35" s="13">
         <f>_input!E185</f>
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="S35" s="13">
         <f>_input!F185</f>
-        <v>3074</v>
+        <v>0</v>
       </c>
       <c r="U35" s="13">
         <f>_input!B190</f>
-        <v>11525</v>
+        <v>0</v>
       </c>
       <c r="V35" s="13">
         <f>_input!C190</f>
-        <v>5957</v>
+        <v>0</v>
       </c>
       <c r="W35" s="13">
         <f>_input!D190</f>
-        <v>5252</v>
+        <v>0</v>
       </c>
       <c r="X35" s="13">
         <f>_input!E190</f>
-        <v>4917</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="13">
         <f>_input!F190</f>
-        <v>4352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="16.5" customHeight="1">
@@ -8334,50 +8335,50 @@
       <c r="H36" s="25"/>
       <c r="I36" s="25"/>
       <c r="J36" s="26"/>
-      <c r="L36" s="37" t="s">
+      <c r="L36" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="M36" s="38"/>
-      <c r="N36" s="39"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="38"/>
       <c r="O36" s="14">
         <f>_input!B186</f>
-        <v>0.22223720130767416</v>
+        <v>0</v>
       </c>
       <c r="P36" s="14">
         <f>_input!C186</f>
-        <v>8.3044049745542789E-2</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="14">
         <f>_input!D186</f>
-        <v>6.7658656600721248E-2</v>
+        <v>0</v>
       </c>
       <c r="R36" s="14">
         <f>_input!E186</f>
-        <v>5.5609854740318827E-2</v>
+        <v>0</v>
       </c>
       <c r="S36" s="14">
         <f>_input!F186</f>
-        <v>5.1801422264163663E-2</v>
+        <v>0</v>
       </c>
       <c r="U36" s="14">
         <f>_input!B191</f>
-        <v>0.19421320481278015</v>
+        <v>0</v>
       </c>
       <c r="V36" s="14">
         <f>_input!C191</f>
-        <v>0.1003842135418422</v>
+        <v>0</v>
       </c>
       <c r="W36" s="14">
         <f>_input!D191</f>
-        <v>8.8503926392774088E-2</v>
+        <v>0</v>
       </c>
       <c r="X36" s="14">
         <f>_input!E191</f>
-        <v>8.2858683563075061E-2</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="14">
         <f>_input!F191</f>
-        <v>7.3337602372687133E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="6" customHeight="1">
@@ -8408,24 +8409,24 @@
       <c r="Y37" s="28"/>
     </row>
     <row r="38" spans="1:25" ht="16.5" customHeight="1">
-      <c r="B38" s="40" t="str">
+      <c r="B38" s="41" t="str">
         <f>_input!B194</f>
         <v>活跃子账号数</v>
       </c>
-      <c r="C38" s="40"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="42">
+      <c r="C38" s="41"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="39">
         <f>_input!B195</f>
-        <v>59342</v>
-      </c>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="44">
+        <v>0</v>
+      </c>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="33">
         <f>_input!C223</f>
         <v>0</v>
       </c>
-      <c r="I38" s="45"/>
-      <c r="J38" s="46"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="35"/>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="11"/>
@@ -8481,50 +8482,50 @@
       <c r="H39" s="28"/>
       <c r="I39" s="28"/>
       <c r="J39" s="23"/>
-      <c r="L39" s="37" t="s">
+      <c r="L39" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="M39" s="38"/>
-      <c r="N39" s="39"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="38"/>
       <c r="O39" s="13">
         <f>_input!B199</f>
-        <v>13188</v>
+        <v>0</v>
       </c>
       <c r="P39" s="13">
         <f>_input!C199</f>
-        <v>4928</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="13">
         <f>_input!D199</f>
-        <v>4015</v>
+        <v>0</v>
       </c>
       <c r="R39" s="13">
         <f>_input!E199</f>
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="S39" s="13">
         <f>_input!F199</f>
-        <v>3074</v>
+        <v>0</v>
       </c>
       <c r="U39" s="13">
         <f>_input!B204</f>
-        <v>11525</v>
+        <v>0</v>
       </c>
       <c r="V39" s="13">
         <f>_input!C204</f>
-        <v>5957</v>
+        <v>0</v>
       </c>
       <c r="W39" s="13">
         <f>_input!D204</f>
-        <v>5252</v>
+        <v>0</v>
       </c>
       <c r="X39" s="13">
         <f>_input!E204</f>
-        <v>4917</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="13">
         <f>_input!F204</f>
-        <v>4352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:25" ht="16.5" customHeight="1">
@@ -8538,50 +8539,50 @@
       <c r="H40" s="25"/>
       <c r="I40" s="25"/>
       <c r="J40" s="26"/>
-      <c r="L40" s="37" t="s">
+      <c r="L40" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="M40" s="38"/>
-      <c r="N40" s="39"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="38"/>
       <c r="O40" s="14">
         <f>_input!B200</f>
-        <v>0.22223720130767416</v>
+        <v>0</v>
       </c>
       <c r="P40" s="14">
         <f>_input!C200</f>
-        <v>8.3044049745542789E-2</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="14">
         <f>_input!D200</f>
-        <v>6.7658656600721248E-2</v>
+        <v>0</v>
       </c>
       <c r="R40" s="14">
         <f>_input!E200</f>
-        <v>5.5609854740318827E-2</v>
+        <v>0</v>
       </c>
       <c r="S40" s="14">
         <f>_input!F200</f>
-        <v>5.1801422264163663E-2</v>
+        <v>0</v>
       </c>
       <c r="U40" s="14">
         <f>_input!B205</f>
-        <v>0.19421320481278015</v>
+        <v>0</v>
       </c>
       <c r="V40" s="14">
         <f>_input!C205</f>
-        <v>0.1003842135418422</v>
+        <v>0</v>
       </c>
       <c r="W40" s="14">
         <f>_input!D205</f>
-        <v>8.8503926392774088E-2</v>
+        <v>0</v>
       </c>
       <c r="X40" s="14">
         <f>_input!E205</f>
-        <v>8.2858683563075061E-2</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="14">
         <f>_input!F205</f>
-        <v>7.3337602372687133E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:25" ht="6" customHeight="1">
@@ -8612,24 +8613,24 @@
       <c r="Y41" s="28"/>
     </row>
     <row r="42" spans="1:25" ht="16.5" customHeight="1">
-      <c r="B42" s="40" t="str">
+      <c r="B42" s="41" t="str">
         <f>_input!B208</f>
         <v>活跃用户数</v>
       </c>
-      <c r="C42" s="40"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="42">
+      <c r="C42" s="41"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="39">
         <f>_input!B209</f>
-        <v>59342</v>
-      </c>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="44">
+        <v>0</v>
+      </c>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="33">
         <f>_input!D223</f>
         <v>0</v>
       </c>
-      <c r="I42" s="45"/>
-      <c r="J42" s="46"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="35"/>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="11"/>
@@ -8685,50 +8686,50 @@
       <c r="H43" s="28"/>
       <c r="I43" s="28"/>
       <c r="J43" s="23"/>
-      <c r="L43" s="37" t="s">
+      <c r="L43" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="M43" s="38"/>
-      <c r="N43" s="39"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="38"/>
       <c r="O43" s="13">
         <f>_input!B213</f>
-        <v>13188</v>
+        <v>0</v>
       </c>
       <c r="P43" s="13">
         <f>_input!C213</f>
-        <v>4928</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="13">
         <f>_input!D213</f>
-        <v>4015</v>
+        <v>0</v>
       </c>
       <c r="R43" s="13">
         <f>_input!E213</f>
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="S43" s="13">
         <f>_input!F213</f>
-        <v>3074</v>
+        <v>0</v>
       </c>
       <c r="U43" s="13">
         <f>_input!B218</f>
-        <v>11525</v>
+        <v>0</v>
       </c>
       <c r="V43" s="13">
         <f>_input!C218</f>
-        <v>5957</v>
+        <v>0</v>
       </c>
       <c r="W43" s="13">
         <f>_input!D218</f>
-        <v>5252</v>
+        <v>0</v>
       </c>
       <c r="X43" s="13">
         <f>_input!E218</f>
-        <v>4917</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="13">
         <f>_input!F218</f>
-        <v>4352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:25" ht="16.5" customHeight="1">
@@ -8742,77 +8743,77 @@
       <c r="H44" s="25"/>
       <c r="I44" s="25"/>
       <c r="J44" s="26"/>
-      <c r="L44" s="37" t="s">
+      <c r="L44" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="M44" s="38"/>
-      <c r="N44" s="39"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="38"/>
       <c r="O44" s="14">
         <f>_input!B214</f>
-        <v>0.22223720130767416</v>
+        <v>0</v>
       </c>
       <c r="P44" s="14">
         <f>_input!C214</f>
-        <v>8.3044049745542789E-2</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="14">
         <f>_input!D214</f>
-        <v>6.7658656600721248E-2</v>
+        <v>0</v>
       </c>
       <c r="R44" s="14">
         <f>_input!E214</f>
-        <v>5.5609854740318827E-2</v>
+        <v>0</v>
       </c>
       <c r="S44" s="14">
         <f>_input!F214</f>
-        <v>5.1801422264163663E-2</v>
+        <v>0</v>
       </c>
       <c r="U44" s="14">
         <f>_input!B219</f>
-        <v>0.19421320481278015</v>
+        <v>0</v>
       </c>
       <c r="V44" s="14">
         <f>_input!C219</f>
-        <v>0.1003842135418422</v>
+        <v>0</v>
       </c>
       <c r="W44" s="14">
         <f>_input!D219</f>
-        <v>8.8503926392774088E-2</v>
+        <v>0</v>
       </c>
       <c r="X44" s="14">
         <f>_input!E219</f>
-        <v>8.2858683563075061E-2</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="14">
         <f>_input!F219</f>
-        <v>7.3337602372687133E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:25">
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
     </row>
     <row r="61" spans="2:10">
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="34"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="44"/>
+      <c r="J61" s="44"/>
     </row>
     <row r="75" spans="26:26">
       <c r="Z75" s="5" t="s">
@@ -8821,13 +8822,36 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="B61:J61"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B46:J46"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:J26"/>
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="L11:N11"/>
     <mergeCell ref="L44:N44"/>
@@ -8844,11 +8868,13 @@
     <mergeCell ref="L43:N43"/>
     <mergeCell ref="L39:N39"/>
     <mergeCell ref="L40:N40"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
     <mergeCell ref="E30:G30"/>
     <mergeCell ref="H30:J30"/>
     <mergeCell ref="E34:G34"/>
@@ -8856,31 +8882,6 @@
     <mergeCell ref="E38:G38"/>
     <mergeCell ref="H38:J38"/>
     <mergeCell ref="E42:G42"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="B61:J61"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B46:J46"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L24:N24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9011,7 +9012,7 @@
         <v>88</v>
       </c>
       <c r="B3" s="4">
-        <v>59342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.25" thickBot="1">
@@ -9044,42 +9045,42 @@
         <v>99</v>
       </c>
       <c r="B7" s="18">
-        <v>13188</v>
+        <v>0</v>
       </c>
       <c r="C7" s="18">
-        <v>4928</v>
+        <v>0</v>
       </c>
       <c r="D7" s="18">
-        <v>4015</v>
+        <v>0</v>
       </c>
       <c r="E7" s="18">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="F7" s="19">
-        <v>3074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="20"/>
       <c r="B8" s="7">
         <f>IF($B3=0,0,$B7/$B3)</f>
-        <v>0.22223720130767416</v>
+        <v>0</v>
       </c>
       <c r="C8" s="7">
         <f>IF($B3=0,0,$C7/$B3)</f>
-        <v>8.3044049745542789E-2</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
         <f>IF($B3=0,0,$D7/$B3)</f>
-        <v>6.7658656600721248E-2</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7">
         <f>IF($B3=0,0,$E7/$B3)</f>
-        <v>5.5609854740318827E-2</v>
+        <v>0</v>
       </c>
       <c r="F8" s="7">
         <f>IF($B3=0,0,$F7/$B3)</f>
-        <v>5.1801422264163663E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="14.25" thickBot="1">
@@ -9112,42 +9113,42 @@
         <v>99</v>
       </c>
       <c r="B12" s="18">
-        <v>11525</v>
+        <v>0</v>
       </c>
       <c r="C12" s="18">
-        <v>5957</v>
+        <v>0</v>
       </c>
       <c r="D12" s="18">
-        <v>5252</v>
+        <v>0</v>
       </c>
       <c r="E12" s="18">
-        <v>4917</v>
+        <v>0</v>
       </c>
       <c r="F12" s="19">
-        <v>4352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="20"/>
       <c r="B13" s="7">
         <f>IF($B3=0,0,$B12/$B3)</f>
-        <v>0.19421320481278015</v>
+        <v>0</v>
       </c>
       <c r="C13" s="7">
         <f>IF($B3=0,0,$C12/$B3)</f>
-        <v>0.1003842135418422</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
         <f>IF($B3=0,0,$D12/$B3)</f>
-        <v>8.8503926392774088E-2</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7">
         <f>IF($B3=0,0,$E12/$B3)</f>
-        <v>8.2858683563075061E-2</v>
+        <v>0</v>
       </c>
       <c r="F13" s="7">
         <f>IF($B3=0,0,$F12/$B3)</f>
-        <v>7.3337602372687133E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="14.25" thickBot="1">
@@ -9201,13 +9202,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="4">
-        <v>12477</v>
+        <v>0</v>
       </c>
       <c r="D17" s="4">
-        <v>4917</v>
+        <v>0</v>
       </c>
       <c r="E17" s="4">
-        <v>4095</v>
+        <v>0</v>
       </c>
       <c r="F17" s="4">
         <v>0</v>
@@ -9222,13 +9223,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="4">
-        <v>1962</v>
+        <v>0</v>
       </c>
       <c r="K17" s="4">
-        <v>517</v>
+        <v>0</v>
       </c>
       <c r="L17" s="4">
-        <v>2316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="14.25" thickBot="1">
@@ -9237,13 +9238,13 @@
         <v>3</v>
       </c>
       <c r="C18" s="4">
-        <v>1074</v>
+        <v>0</v>
       </c>
       <c r="D18" s="4">
-        <v>465</v>
+        <v>0</v>
       </c>
       <c r="E18" s="4">
-        <v>421</v>
+        <v>0</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
@@ -9258,13 +9259,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="4">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="K18" s="4">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="L18" s="4">
-        <v>236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="14.25" thickBot="1">
@@ -9273,13 +9274,13 @@
         <v>4</v>
       </c>
       <c r="C19" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D19" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E19" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
@@ -9297,10 +9298,10 @@
         <v>0</v>
       </c>
       <c r="K19" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L19" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="14.25" thickBot="1">
@@ -9309,13 +9310,13 @@
         <v>5</v>
       </c>
       <c r="C20" s="4">
-        <v>430</v>
+        <v>0</v>
       </c>
       <c r="D20" s="4">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="E20" s="4">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="F20" s="4">
         <v>0</v>
@@ -9330,13 +9331,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="4">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="K20" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L20" s="4">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="14.25" thickBot="1">
@@ -9345,13 +9346,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="4">
-        <v>15686</v>
+        <v>0</v>
       </c>
       <c r="D21" s="4">
-        <v>5957</v>
+        <v>0</v>
       </c>
       <c r="E21" s="4">
-        <v>4826</v>
+        <v>0</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
@@ -9366,13 +9367,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="4">
-        <v>2590</v>
+        <v>0</v>
       </c>
       <c r="K21" s="4">
-        <v>873</v>
+        <v>0</v>
       </c>
       <c r="L21" s="4">
-        <v>3104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="14.25" thickBot="1">
@@ -9381,7 +9382,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="4">
         <v>0</v>
@@ -9417,13 +9418,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="4">
-        <v>1414</v>
+        <v>0</v>
       </c>
       <c r="D23" s="4">
-        <v>601</v>
+        <v>0</v>
       </c>
       <c r="E23" s="4">
-        <v>548</v>
+        <v>0</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
@@ -9438,13 +9439,13 @@
         <v>0</v>
       </c>
       <c r="J23" s="4">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="K23" s="4">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="L23" s="4">
-        <v>355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="14.25" thickBot="1">
@@ -9453,13 +9454,13 @@
         <v>9</v>
       </c>
       <c r="C24" s="4">
-        <v>4944</v>
+        <v>0</v>
       </c>
       <c r="D24" s="4">
-        <v>2291</v>
+        <v>0</v>
       </c>
       <c r="E24" s="4">
-        <v>1976</v>
+        <v>0</v>
       </c>
       <c r="F24" s="4">
         <v>0</v>
@@ -9474,13 +9475,13 @@
         <v>0</v>
       </c>
       <c r="J24" s="4">
-        <v>1071</v>
+        <v>0</v>
       </c>
       <c r="K24" s="4">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="L24" s="4">
-        <v>1239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="14.25" thickBot="1">
@@ -9489,13 +9490,13 @@
         <v>10</v>
       </c>
       <c r="C25" s="4">
-        <v>1624</v>
+        <v>0</v>
       </c>
       <c r="D25" s="4">
-        <v>742</v>
+        <v>0</v>
       </c>
       <c r="E25" s="4">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="F25" s="4">
         <v>0</v>
@@ -9510,13 +9511,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="4">
-        <v>342</v>
+        <v>0</v>
       </c>
       <c r="K25" s="4">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="L25" s="4">
-        <v>404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="14.25" thickBot="1">
@@ -9525,13 +9526,13 @@
         <v>11</v>
       </c>
       <c r="C26" s="4">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D26" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E26" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F26" s="4">
         <v>0</v>
@@ -9546,13 +9547,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K26" s="4">
         <v>0</v>
       </c>
       <c r="L26" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="14.25" thickBot="1">
@@ -9561,13 +9562,13 @@
         <v>12</v>
       </c>
       <c r="C27" s="4">
-        <v>2765</v>
+        <v>0</v>
       </c>
       <c r="D27" s="4">
-        <v>1338</v>
+        <v>0</v>
       </c>
       <c r="E27" s="4">
-        <v>1210</v>
+        <v>0</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>
@@ -9582,13 +9583,13 @@
         <v>0</v>
       </c>
       <c r="J27" s="4">
-        <v>629</v>
+        <v>0</v>
       </c>
       <c r="K27" s="4">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="L27" s="4">
-        <v>745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="14.25" thickBot="1">
@@ -9597,13 +9598,13 @@
         <v>13</v>
       </c>
       <c r="C28" s="4">
-        <v>9042</v>
+        <v>0</v>
       </c>
       <c r="D28" s="4">
-        <v>4352</v>
+        <v>0</v>
       </c>
       <c r="E28" s="4">
-        <v>3998</v>
+        <v>0</v>
       </c>
       <c r="F28" s="4">
         <v>0</v>
@@ -9618,13 +9619,13 @@
         <v>0</v>
       </c>
       <c r="J28" s="4">
-        <v>2137</v>
+        <v>0</v>
       </c>
       <c r="K28" s="4">
-        <v>521</v>
+        <v>0</v>
       </c>
       <c r="L28" s="4">
-        <v>2457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="14.25" thickBot="1">
@@ -9633,13 +9634,13 @@
         <v>14</v>
       </c>
       <c r="C29" s="4">
-        <v>1912</v>
+        <v>0</v>
       </c>
       <c r="D29" s="4">
-        <v>775</v>
+        <v>0</v>
       </c>
       <c r="E29" s="4">
-        <v>719</v>
+        <v>0</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
@@ -9654,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="4">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="K29" s="4">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="L29" s="4">
-        <v>414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="14.25" thickBot="1">
@@ -9669,13 +9670,13 @@
         <v>15</v>
       </c>
       <c r="C30" s="4">
-        <v>22835</v>
+        <v>0</v>
       </c>
       <c r="D30" s="4">
-        <v>11525</v>
+        <v>0</v>
       </c>
       <c r="E30" s="4">
-        <v>9985</v>
+        <v>0</v>
       </c>
       <c r="F30" s="4">
         <v>0</v>
@@ -9690,13 +9691,13 @@
         <v>0</v>
       </c>
       <c r="J30" s="4">
-        <v>5196</v>
+        <v>0</v>
       </c>
       <c r="K30" s="4">
-        <v>1022</v>
+        <v>0</v>
       </c>
       <c r="L30" s="4">
-        <v>5729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="14.25" thickBot="1">
@@ -9705,13 +9706,13 @@
         <v>16</v>
       </c>
       <c r="C31" s="4">
-        <v>764</v>
+        <v>0</v>
       </c>
       <c r="D31" s="4">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="E31" s="4">
-        <v>311</v>
+        <v>0</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
@@ -9726,13 +9727,13 @@
         <v>0</v>
       </c>
       <c r="J31" s="4">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="K31" s="4">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="L31" s="4">
-        <v>188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="14.25" thickBot="1">
@@ -9741,13 +9742,13 @@
         <v>17</v>
       </c>
       <c r="C32" s="4">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="D32" s="4">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="E32" s="4">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="F32" s="4">
         <v>0</v>
@@ -9762,13 +9763,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="4">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="K32" s="4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L32" s="4">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="14.25" thickBot="1">
@@ -9849,13 +9850,13 @@
         <v>20</v>
       </c>
       <c r="C35" s="4">
-        <v>11782</v>
+        <v>0</v>
       </c>
       <c r="D35" s="4">
-        <v>5252</v>
+        <v>0</v>
       </c>
       <c r="E35" s="4">
-        <v>4789</v>
+        <v>0</v>
       </c>
       <c r="F35" s="4">
         <v>0</v>
@@ -9870,13 +9871,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="4">
-        <v>2044</v>
+        <v>0</v>
       </c>
       <c r="K35" s="4">
-        <v>539</v>
+        <v>0</v>
       </c>
       <c r="L35" s="4">
-        <v>2432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="14.25" thickBot="1">
@@ -9885,13 +9886,13 @@
         <v>21</v>
       </c>
       <c r="C36" s="4">
-        <v>1183</v>
+        <v>0</v>
       </c>
       <c r="D36" s="4">
-        <v>474</v>
+        <v>0</v>
       </c>
       <c r="E36" s="4">
-        <v>439</v>
+        <v>0</v>
       </c>
       <c r="F36" s="4">
         <v>0</v>
@@ -9906,13 +9907,13 @@
         <v>0</v>
       </c>
       <c r="J36" s="4">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="K36" s="4">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="L36" s="4">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="14.25" thickBot="1">
@@ -9921,13 +9922,13 @@
         <v>22</v>
       </c>
       <c r="C37" s="4">
-        <v>7934</v>
+        <v>0</v>
       </c>
       <c r="D37" s="4">
-        <v>3928</v>
+        <v>0</v>
       </c>
       <c r="E37" s="4">
-        <v>3643</v>
+        <v>0</v>
       </c>
       <c r="F37" s="4">
         <v>0</v>
@@ -9942,13 +9943,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="4">
-        <v>1863</v>
+        <v>0</v>
       </c>
       <c r="K37" s="4">
-        <v>342</v>
+        <v>0</v>
       </c>
       <c r="L37" s="4">
-        <v>2085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="14.25" thickBot="1">
@@ -9957,13 +9958,13 @@
         <v>23</v>
       </c>
       <c r="C38" s="4">
-        <v>6652</v>
+        <v>0</v>
       </c>
       <c r="D38" s="4">
-        <v>3214</v>
+        <v>0</v>
       </c>
       <c r="E38" s="4">
-        <v>2947</v>
+        <v>0</v>
       </c>
       <c r="F38" s="4">
         <v>0</v>
@@ -9978,13 +9979,13 @@
         <v>0</v>
       </c>
       <c r="J38" s="4">
-        <v>1542</v>
+        <v>0</v>
       </c>
       <c r="K38" s="4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L38" s="4">
-        <v>1775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="14.25" thickBot="1">
@@ -9993,13 +9994,13 @@
         <v>24</v>
       </c>
       <c r="C39" s="4">
-        <v>6503</v>
+        <v>0</v>
       </c>
       <c r="D39" s="4">
-        <v>3410</v>
+        <v>0</v>
       </c>
       <c r="E39" s="4">
-        <v>3070</v>
+        <v>0</v>
       </c>
       <c r="F39" s="4">
         <v>0</v>
@@ -10014,13 +10015,13 @@
         <v>0</v>
       </c>
       <c r="J39" s="4">
-        <v>1649</v>
+        <v>0</v>
       </c>
       <c r="K39" s="4">
-        <v>421</v>
+        <v>0</v>
       </c>
       <c r="L39" s="4">
-        <v>1911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="14.25" thickBot="1">
@@ -10029,13 +10030,13 @@
         <v>25</v>
       </c>
       <c r="C40" s="4">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="D40" s="4">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E40" s="4">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="F40" s="4">
         <v>0</v>
@@ -10050,13 +10051,13 @@
         <v>0</v>
       </c>
       <c r="J40" s="4">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="K40" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L40" s="4">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="14.25" thickBot="1">
@@ -10065,13 +10066,13 @@
         <v>26</v>
       </c>
       <c r="C41" s="4">
-        <v>5038</v>
+        <v>0</v>
       </c>
       <c r="D41" s="4">
-        <v>2243</v>
+        <v>0</v>
       </c>
       <c r="E41" s="4">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="F41" s="4">
         <v>0</v>
@@ -10086,13 +10087,13 @@
         <v>0</v>
       </c>
       <c r="J41" s="4">
-        <v>942</v>
+        <v>0</v>
       </c>
       <c r="K41" s="4">
-        <v>287</v>
+        <v>0</v>
       </c>
       <c r="L41" s="4">
-        <v>1116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="14.25" thickBot="1">
@@ -10101,13 +10102,13 @@
         <v>27</v>
       </c>
       <c r="C42" s="4">
-        <v>2841</v>
+        <v>0</v>
       </c>
       <c r="D42" s="4">
-        <v>1324</v>
+        <v>0</v>
       </c>
       <c r="E42" s="4">
-        <v>1159</v>
+        <v>0</v>
       </c>
       <c r="F42" s="4">
         <v>0</v>
@@ -10122,13 +10123,13 @@
         <v>0</v>
       </c>
       <c r="J42" s="4">
-        <v>667</v>
+        <v>0</v>
       </c>
       <c r="K42" s="4">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="L42" s="4">
-        <v>795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="14.25" thickBot="1">
@@ -10173,13 +10174,13 @@
         <v>29</v>
       </c>
       <c r="C44" s="4">
-        <v>371</v>
+        <v>0</v>
       </c>
       <c r="D44" s="4">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="E44" s="4">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="F44" s="4">
         <v>0</v>
@@ -10194,13 +10195,13 @@
         <v>0</v>
       </c>
       <c r="J44" s="4">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="K44" s="4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L44" s="4">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="14.25" thickBot="1">
@@ -10209,13 +10210,13 @@
         <v>30</v>
       </c>
       <c r="C45" s="4">
-        <v>2015</v>
+        <v>0</v>
       </c>
       <c r="D45" s="4">
-        <v>979</v>
+        <v>0</v>
       </c>
       <c r="E45" s="4">
-        <v>823</v>
+        <v>0</v>
       </c>
       <c r="F45" s="4">
         <v>0</v>
@@ -10230,13 +10231,13 @@
         <v>0</v>
       </c>
       <c r="J45" s="4">
-        <v>457</v>
+        <v>0</v>
       </c>
       <c r="K45" s="4">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="L45" s="4">
-        <v>529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="14.25" thickBot="1">
@@ -10245,13 +10246,13 @@
         <v>31</v>
       </c>
       <c r="C46" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D46" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E46" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="4">
         <v>0</v>
@@ -10266,13 +10267,13 @@
         <v>0</v>
       </c>
       <c r="J46" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="4">
         <v>0</v>
       </c>
       <c r="L46" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="14.25" thickBot="1">
@@ -10281,13 +10282,13 @@
         <v>32</v>
       </c>
       <c r="C47" s="4">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="D47" s="4">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="E47" s="4">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="F47" s="4">
         <v>0</v>
@@ -10302,13 +10303,13 @@
         <v>0</v>
       </c>
       <c r="J47" s="4">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="K47" s="4">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="L47" s="4">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="14.25" thickBot="1">
@@ -10317,13 +10318,13 @@
         <v>33</v>
       </c>
       <c r="C48" s="4">
-        <v>4586</v>
+        <v>0</v>
       </c>
       <c r="D48" s="4">
-        <v>1950</v>
+        <v>0</v>
       </c>
       <c r="E48" s="4">
-        <v>1752</v>
+        <v>0</v>
       </c>
       <c r="F48" s="4">
         <v>0</v>
@@ -10338,13 +10339,13 @@
         <v>0</v>
       </c>
       <c r="J48" s="4">
-        <v>902</v>
+        <v>0</v>
       </c>
       <c r="K48" s="4">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="L48" s="4">
-        <v>1102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="14.25" thickBot="1">
@@ -10353,13 +10354,13 @@
         <v>34</v>
       </c>
       <c r="C49" s="4">
-        <v>1223</v>
+        <v>0</v>
       </c>
       <c r="D49" s="4">
-        <v>562</v>
+        <v>0</v>
       </c>
       <c r="E49" s="4">
-        <v>474</v>
+        <v>0</v>
       </c>
       <c r="F49" s="4">
         <v>0</v>
@@ -10374,13 +10375,13 @@
         <v>0</v>
       </c>
       <c r="J49" s="4">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="K49" s="4">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="L49" s="4">
-        <v>312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="14.25" thickBot="1">
@@ -10389,13 +10390,13 @@
         <v>35</v>
       </c>
       <c r="C50" s="4">
-        <v>2748</v>
+        <v>0</v>
       </c>
       <c r="D50" s="4">
-        <v>1176</v>
+        <v>0</v>
       </c>
       <c r="E50" s="4">
-        <v>1023</v>
+        <v>0</v>
       </c>
       <c r="F50" s="4">
         <v>0</v>
@@ -10410,13 +10411,13 @@
         <v>0</v>
       </c>
       <c r="J50" s="4">
-        <v>564</v>
+        <v>0</v>
       </c>
       <c r="K50" s="4">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L50" s="4">
-        <v>664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="14.25" thickBot="1">
@@ -10425,13 +10426,13 @@
         <v>36</v>
       </c>
       <c r="C51" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D51" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E51" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F51" s="4">
         <v>0</v>
@@ -10446,13 +10447,13 @@
         <v>0</v>
       </c>
       <c r="J51" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K51" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="14.25" thickBot="1">
@@ -10461,13 +10462,13 @@
         <v>37</v>
       </c>
       <c r="C52" s="4">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="D52" s="4">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="E52" s="4">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="F52" s="4">
         <v>0</v>
@@ -10482,13 +10483,13 @@
         <v>0</v>
       </c>
       <c r="J52" s="4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K52" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L52" s="4">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="14.25" thickBot="1">
@@ -10497,13 +10498,13 @@
         <v>38</v>
       </c>
       <c r="C53" s="4">
-        <v>1492</v>
+        <v>0</v>
       </c>
       <c r="D53" s="4">
-        <v>667</v>
+        <v>0</v>
       </c>
       <c r="E53" s="4">
-        <v>588</v>
+        <v>0</v>
       </c>
       <c r="F53" s="4">
         <v>0</v>
@@ -10518,13 +10519,13 @@
         <v>0</v>
       </c>
       <c r="J53" s="4">
-        <v>344</v>
+        <v>0</v>
       </c>
       <c r="K53" s="4">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="L53" s="4">
-        <v>406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="14.25" thickBot="1">
@@ -10578,13 +10579,13 @@
         <v>40</v>
       </c>
       <c r="C57" s="4">
-        <v>4538</v>
+        <v>0</v>
       </c>
       <c r="D57" s="4">
-        <v>1986</v>
+        <v>0</v>
       </c>
       <c r="E57" s="4">
-        <v>1799</v>
+        <v>0</v>
       </c>
       <c r="F57" s="4">
         <v>0</v>
@@ -10599,13 +10600,13 @@
         <v>0</v>
       </c>
       <c r="J57" s="4">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="K57" s="4">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="L57" s="4">
-        <v>1150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="14.25" thickBot="1">
@@ -10614,13 +10615,13 @@
         <v>41</v>
       </c>
       <c r="C58" s="4">
-        <v>2064</v>
+        <v>0</v>
       </c>
       <c r="D58" s="4">
-        <v>1095</v>
+        <v>0</v>
       </c>
       <c r="E58" s="4">
-        <v>995</v>
+        <v>0</v>
       </c>
       <c r="F58" s="4">
         <v>0</v>
@@ -10635,13 +10636,13 @@
         <v>0</v>
       </c>
       <c r="J58" s="4">
-        <v>599</v>
+        <v>0</v>
       </c>
       <c r="K58" s="4">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="L58" s="4">
-        <v>672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="14.25" thickBot="1">
@@ -10650,13 +10651,13 @@
         <v>42</v>
       </c>
       <c r="C59" s="4">
-        <v>773</v>
+        <v>0</v>
       </c>
       <c r="D59" s="4">
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="E59" s="4">
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="F59" s="4">
         <v>0</v>
@@ -10671,13 +10672,13 @@
         <v>0</v>
       </c>
       <c r="J59" s="4">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="K59" s="4">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="L59" s="4">
-        <v>177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="14.25" thickBot="1">
@@ -10686,13 +10687,13 @@
         <v>43</v>
       </c>
       <c r="C60" s="4">
-        <v>3159</v>
+        <v>0</v>
       </c>
       <c r="D60" s="4">
-        <v>1201</v>
+        <v>0</v>
       </c>
       <c r="E60" s="4">
-        <v>1141</v>
+        <v>0</v>
       </c>
       <c r="F60" s="4">
         <v>0</v>
@@ -10707,13 +10708,13 @@
         <v>0</v>
       </c>
       <c r="J60" s="4">
-        <v>689</v>
+        <v>0</v>
       </c>
       <c r="K60" s="4">
-        <v>301</v>
+        <v>0</v>
       </c>
       <c r="L60" s="4">
-        <v>872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="14.25" thickBot="1">
@@ -10722,13 +10723,13 @@
         <v>44</v>
       </c>
       <c r="C61" s="4">
-        <v>1197</v>
+        <v>0</v>
       </c>
       <c r="D61" s="4">
-        <v>542</v>
+        <v>0</v>
       </c>
       <c r="E61" s="4">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="F61" s="4">
         <v>0</v>
@@ -10743,13 +10744,13 @@
         <v>0</v>
       </c>
       <c r="J61" s="4">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="K61" s="4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L61" s="4">
-        <v>220</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="14.25" thickBot="1">
@@ -10758,13 +10759,13 @@
         <v>45</v>
       </c>
       <c r="C62" s="4">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="D62" s="4">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="E62" s="4">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="F62" s="4">
         <v>0</v>
@@ -10779,13 +10780,13 @@
         <v>0</v>
       </c>
       <c r="J62" s="4">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="K62" s="4">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L62" s="4">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="14.25" thickBot="1">
@@ -10794,13 +10795,13 @@
         <v>46</v>
       </c>
       <c r="C63" s="4">
-        <v>7132</v>
+        <v>0</v>
       </c>
       <c r="D63" s="4">
-        <v>3074</v>
+        <v>0</v>
       </c>
       <c r="E63" s="4">
-        <v>2863</v>
+        <v>0</v>
       </c>
       <c r="F63" s="4">
         <v>0</v>
@@ -10815,13 +10816,13 @@
         <v>0</v>
       </c>
       <c r="J63" s="4">
-        <v>1248</v>
+        <v>0</v>
       </c>
       <c r="K63" s="4">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="L63" s="4">
-        <v>1481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="14.25" thickBot="1">
@@ -10830,13 +10831,13 @@
         <v>47</v>
       </c>
       <c r="C64" s="4">
-        <v>2859</v>
+        <v>0</v>
       </c>
       <c r="D64" s="4">
-        <v>1212</v>
+        <v>0</v>
       </c>
       <c r="E64" s="4">
-        <v>991</v>
+        <v>0</v>
       </c>
       <c r="F64" s="4">
         <v>0</v>
@@ -10851,13 +10852,13 @@
         <v>0</v>
       </c>
       <c r="J64" s="4">
-        <v>652</v>
+        <v>0</v>
       </c>
       <c r="K64" s="4">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="L64" s="4">
-        <v>743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="14.25" thickBot="1">
@@ -10866,13 +10867,13 @@
         <v>48</v>
       </c>
       <c r="C65" s="4">
-        <v>5897</v>
+        <v>0</v>
       </c>
       <c r="D65" s="4">
-        <v>2126</v>
+        <v>0</v>
       </c>
       <c r="E65" s="4">
-        <v>1676</v>
+        <v>0</v>
       </c>
       <c r="F65" s="4">
         <v>0</v>
@@ -10887,13 +10888,13 @@
         <v>0</v>
       </c>
       <c r="J65" s="4">
-        <v>860</v>
+        <v>0</v>
       </c>
       <c r="K65" s="4">
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="L65" s="4">
-        <v>1052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="14.25" thickBot="1">
@@ -10902,13 +10903,13 @@
         <v>49</v>
       </c>
       <c r="C66" s="4">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="D66" s="4">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="E66" s="4">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="F66" s="4">
         <v>0</v>
@@ -10923,13 +10924,13 @@
         <v>0</v>
       </c>
       <c r="J66" s="4">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="K66" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L66" s="4">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="14.25" thickBot="1">
@@ -10938,13 +10939,13 @@
         <v>50</v>
       </c>
       <c r="C67" s="4">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="D67" s="4">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E67" s="4">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F67" s="4">
         <v>0</v>
@@ -10959,13 +10960,13 @@
         <v>0</v>
       </c>
       <c r="J67" s="4">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K67" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L67" s="4">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="14.25" thickBot="1">
@@ -10974,13 +10975,13 @@
         <v>51</v>
       </c>
       <c r="C68" s="4">
-        <v>2679</v>
+        <v>0</v>
       </c>
       <c r="D68" s="4">
-        <v>1240</v>
+        <v>0</v>
       </c>
       <c r="E68" s="4">
-        <v>1094</v>
+        <v>0</v>
       </c>
       <c r="F68" s="4">
         <v>0</v>
@@ -10995,13 +10996,13 @@
         <v>0</v>
       </c>
       <c r="J68" s="4">
-        <v>526</v>
+        <v>0</v>
       </c>
       <c r="K68" s="4">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="L68" s="4">
-        <v>618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="14.25" thickBot="1">
@@ -11010,13 +11011,13 @@
         <v>52</v>
       </c>
       <c r="C69" s="4">
-        <v>2444</v>
+        <v>0</v>
       </c>
       <c r="D69" s="4">
-        <v>1138</v>
+        <v>0</v>
       </c>
       <c r="E69" s="4">
-        <v>1003</v>
+        <v>0</v>
       </c>
       <c r="F69" s="4">
         <v>0</v>
@@ -11031,13 +11032,13 @@
         <v>0</v>
       </c>
       <c r="J69" s="4">
-        <v>525</v>
+        <v>0</v>
       </c>
       <c r="K69" s="4">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="L69" s="4">
-        <v>611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="14.25" thickBot="1">
@@ -11046,13 +11047,13 @@
         <v>53</v>
       </c>
       <c r="C70" s="4">
-        <v>6389</v>
+        <v>0</v>
       </c>
       <c r="D70" s="4">
-        <v>2940</v>
+        <v>0</v>
       </c>
       <c r="E70" s="4">
-        <v>2699</v>
+        <v>0</v>
       </c>
       <c r="F70" s="4">
         <v>0</v>
@@ -11067,13 +11068,13 @@
         <v>0</v>
       </c>
       <c r="J70" s="4">
-        <v>1126</v>
+        <v>0</v>
       </c>
       <c r="K70" s="4">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="L70" s="4">
-        <v>1256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="14.25" thickBot="1">
@@ -11082,13 +11083,13 @@
         <v>54</v>
       </c>
       <c r="C71" s="4">
-        <v>1025</v>
+        <v>0</v>
       </c>
       <c r="D71" s="4">
-        <v>449</v>
+        <v>0</v>
       </c>
       <c r="E71" s="4">
-        <v>358</v>
+        <v>0</v>
       </c>
       <c r="F71" s="4">
         <v>0</v>
@@ -11103,13 +11104,13 @@
         <v>0</v>
       </c>
       <c r="J71" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K71" s="4">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="L71" s="4">
-        <v>227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="14.25" thickBot="1">
@@ -11118,13 +11119,13 @@
         <v>55</v>
       </c>
       <c r="C72" s="4">
-        <v>9582</v>
+        <v>0</v>
       </c>
       <c r="D72" s="4">
-        <v>4015</v>
+        <v>0</v>
       </c>
       <c r="E72" s="4">
-        <v>3691</v>
+        <v>0</v>
       </c>
       <c r="F72" s="4">
         <v>0</v>
@@ -11139,13 +11140,13 @@
         <v>0</v>
       </c>
       <c r="J72" s="4">
-        <v>1565</v>
+        <v>0</v>
       </c>
       <c r="K72" s="4">
-        <v>379</v>
+        <v>0</v>
       </c>
       <c r="L72" s="4">
-        <v>1834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="14.25" thickBot="1">
@@ -11190,13 +11191,13 @@
         <v>57</v>
       </c>
       <c r="C74" s="4">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D74" s="4">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E74" s="4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F74" s="4">
         <v>0</v>
@@ -11211,13 +11212,13 @@
         <v>0</v>
       </c>
       <c r="J74" s="4">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K74" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L74" s="4">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="14.25" thickBot="1">
@@ -11226,13 +11227,13 @@
         <v>58</v>
       </c>
       <c r="C75" s="4">
-        <v>582</v>
+        <v>0</v>
       </c>
       <c r="D75" s="4">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="E75" s="4">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="F75" s="4">
         <v>0</v>
@@ -11247,13 +11248,13 @@
         <v>0</v>
       </c>
       <c r="J75" s="4">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="K75" s="4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L75" s="4">
-        <v>171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="14.25" thickBot="1">
@@ -11262,13 +11263,13 @@
         <v>59</v>
       </c>
       <c r="C76" s="4">
-        <v>2678</v>
+        <v>0</v>
       </c>
       <c r="D76" s="4">
-        <v>1516</v>
+        <v>0</v>
       </c>
       <c r="E76" s="4">
-        <v>1239</v>
+        <v>0</v>
       </c>
       <c r="F76" s="4">
         <v>0</v>
@@ -11283,13 +11284,13 @@
         <v>0</v>
       </c>
       <c r="J76" s="4">
-        <v>1032</v>
+        <v>0</v>
       </c>
       <c r="K76" s="4">
-        <v>498</v>
+        <v>0</v>
       </c>
       <c r="L76" s="4">
-        <v>1213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="14.25" thickBot="1">
@@ -11298,13 +11299,13 @@
         <v>60</v>
       </c>
       <c r="C77" s="4">
-        <v>6475</v>
+        <v>0</v>
       </c>
       <c r="D77" s="4">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="E77" s="4">
-        <v>2492</v>
+        <v>0</v>
       </c>
       <c r="F77" s="4">
         <v>0</v>
@@ -11319,13 +11320,13 @@
         <v>0</v>
       </c>
       <c r="J77" s="4">
-        <v>2023</v>
+        <v>0</v>
       </c>
       <c r="K77" s="4">
-        <v>614</v>
+        <v>0</v>
       </c>
       <c r="L77" s="4">
-        <v>2327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="14.25" thickBot="1">
@@ -11334,13 +11335,13 @@
         <v>61</v>
       </c>
       <c r="C78" s="4">
-        <v>4223</v>
+        <v>0</v>
       </c>
       <c r="D78" s="4">
-        <v>1982</v>
+        <v>0</v>
       </c>
       <c r="E78" s="4">
-        <v>1531</v>
+        <v>0</v>
       </c>
       <c r="F78" s="4">
         <v>0</v>
@@ -11355,13 +11356,13 @@
         <v>0</v>
       </c>
       <c r="J78" s="4">
-        <v>1156</v>
+        <v>0</v>
       </c>
       <c r="K78" s="4">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="L78" s="4">
-        <v>1262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="14.25" thickBot="1">
@@ -11370,13 +11371,13 @@
         <v>62</v>
       </c>
       <c r="C79" s="4">
-        <v>1888</v>
+        <v>0</v>
       </c>
       <c r="D79" s="4">
-        <v>842</v>
+        <v>0</v>
       </c>
       <c r="E79" s="4">
-        <v>755</v>
+        <v>0</v>
       </c>
       <c r="F79" s="4">
         <v>0</v>
@@ -11391,13 +11392,13 @@
         <v>0</v>
       </c>
       <c r="J79" s="4">
-        <v>361</v>
+        <v>0</v>
       </c>
       <c r="K79" s="4">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="L79" s="4">
-        <v>429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="14.25" thickBot="1">
@@ -11406,13 +11407,13 @@
         <v>19</v>
       </c>
       <c r="C80" s="4">
-        <v>6447</v>
+        <v>0</v>
       </c>
       <c r="D80" s="4">
-        <v>2526</v>
+        <v>0</v>
       </c>
       <c r="E80" s="4">
-        <v>2215</v>
+        <v>0</v>
       </c>
       <c r="F80" s="4">
         <v>0</v>
@@ -11427,13 +11428,13 @@
         <v>0</v>
       </c>
       <c r="J80" s="4">
-        <v>1099</v>
+        <v>0</v>
       </c>
       <c r="K80" s="4">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="L80" s="4">
-        <v>1234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="14.25" thickBot="1">
@@ -11442,13 +11443,13 @@
         <v>63</v>
       </c>
       <c r="C81" s="4">
-        <v>27396</v>
+        <v>0</v>
       </c>
       <c r="D81" s="4">
-        <v>13188</v>
+        <v>0</v>
       </c>
       <c r="E81" s="4">
-        <v>12224</v>
+        <v>0</v>
       </c>
       <c r="F81" s="4">
         <v>0</v>
@@ -11463,13 +11464,13 @@
         <v>0</v>
       </c>
       <c r="J81" s="4">
-        <v>5242</v>
+        <v>0</v>
       </c>
       <c r="K81" s="4">
-        <v>1221</v>
+        <v>0</v>
       </c>
       <c r="L81" s="4">
-        <v>6090</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="14.25" thickBot="1">
@@ -11478,13 +11479,13 @@
         <v>64</v>
       </c>
       <c r="C82" s="4">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D82" s="4">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="E82" s="4">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="F82" s="4">
         <v>0</v>
@@ -11499,13 +11500,13 @@
         <v>0</v>
       </c>
       <c r="J82" s="4">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="K82" s="4">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="L82" s="4">
-        <v>146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="14.25" thickBot="1">
@@ -11514,13 +11515,13 @@
         <v>65</v>
       </c>
       <c r="C83" s="4">
-        <v>4841</v>
+        <v>0</v>
       </c>
       <c r="D83" s="4">
-        <v>2361</v>
+        <v>0</v>
       </c>
       <c r="E83" s="4">
-        <v>2066</v>
+        <v>0</v>
       </c>
       <c r="F83" s="4">
         <v>0</v>
@@ -11535,13 +11536,13 @@
         <v>0</v>
       </c>
       <c r="J83" s="4">
-        <v>1159</v>
+        <v>0</v>
       </c>
       <c r="K83" s="4">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="L83" s="4">
-        <v>1291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="14.25" thickBot="1">
@@ -11550,13 +11551,13 @@
         <v>66</v>
       </c>
       <c r="C84" s="4">
-        <v>3400</v>
+        <v>0</v>
       </c>
       <c r="D84" s="4">
-        <v>1598</v>
+        <v>0</v>
       </c>
       <c r="E84" s="4">
-        <v>1454</v>
+        <v>0</v>
       </c>
       <c r="F84" s="4">
         <v>0</v>
@@ -11571,13 +11572,13 @@
         <v>0</v>
       </c>
       <c r="J84" s="4">
-        <v>719</v>
+        <v>0</v>
       </c>
       <c r="K84" s="4">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="L84" s="4">
-        <v>829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="14.25" thickBot="1">
@@ -11586,13 +11587,13 @@
         <v>67</v>
       </c>
       <c r="C85" s="4">
-        <v>10493</v>
+        <v>0</v>
       </c>
       <c r="D85" s="4">
-        <v>4928</v>
+        <v>0</v>
       </c>
       <c r="E85" s="4">
-        <v>4304</v>
+        <v>0</v>
       </c>
       <c r="F85" s="4">
         <v>0</v>
@@ -11607,13 +11608,13 @@
         <v>0</v>
       </c>
       <c r="J85" s="4">
-        <v>1896</v>
+        <v>0</v>
       </c>
       <c r="K85" s="4">
-        <v>446</v>
+        <v>0</v>
       </c>
       <c r="L85" s="4">
-        <v>2217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="14.25" thickBot="1">
@@ -11622,13 +11623,13 @@
         <v>68</v>
       </c>
       <c r="C86" s="4">
-        <v>1567</v>
+        <v>0</v>
       </c>
       <c r="D86" s="4">
-        <v>737</v>
+        <v>0</v>
       </c>
       <c r="E86" s="4">
-        <v>614</v>
+        <v>0</v>
       </c>
       <c r="F86" s="4">
         <v>0</v>
@@ -11643,13 +11644,13 @@
         <v>0</v>
       </c>
       <c r="J86" s="4">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="K86" s="4">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="L86" s="4">
-        <v>371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="14.25" thickBot="1">
@@ -11658,13 +11659,13 @@
         <v>69</v>
       </c>
       <c r="C87" s="4">
-        <v>2152</v>
+        <v>0</v>
       </c>
       <c r="D87" s="4">
-        <v>1084</v>
+        <v>0</v>
       </c>
       <c r="E87" s="4">
-        <v>941</v>
+        <v>0</v>
       </c>
       <c r="F87" s="4">
         <v>0</v>
@@ -11679,13 +11680,13 @@
         <v>0</v>
       </c>
       <c r="J87" s="4">
-        <v>530</v>
+        <v>0</v>
       </c>
       <c r="K87" s="4">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="L87" s="4">
-        <v>580</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="14.25" thickBot="1">
@@ -11694,13 +11695,13 @@
         <v>70</v>
       </c>
       <c r="C88" s="4">
-        <v>1343</v>
+        <v>0</v>
       </c>
       <c r="D88" s="4">
-        <v>602</v>
+        <v>0</v>
       </c>
       <c r="E88" s="4">
-        <v>451</v>
+        <v>0</v>
       </c>
       <c r="F88" s="4">
         <v>0</v>
@@ -11715,13 +11716,13 @@
         <v>0</v>
       </c>
       <c r="J88" s="4">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="K88" s="4">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="L88" s="4">
-        <v>287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="14.25" thickBot="1">
@@ -11730,13 +11731,13 @@
         <v>71</v>
       </c>
       <c r="C89" s="4">
-        <v>2144</v>
+        <v>0</v>
       </c>
       <c r="D89" s="4">
-        <v>871</v>
+        <v>0</v>
       </c>
       <c r="E89" s="4">
-        <v>809</v>
+        <v>0</v>
       </c>
       <c r="F89" s="4">
         <v>0</v>
@@ -11751,13 +11752,13 @@
         <v>0</v>
       </c>
       <c r="J89" s="4">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="K89" s="4">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="L89" s="4">
-        <v>442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="14.25" thickBot="1">
@@ -11766,13 +11767,13 @@
         <v>72</v>
       </c>
       <c r="C90" s="4">
-        <v>1752</v>
+        <v>0</v>
       </c>
       <c r="D90" s="4">
-        <v>772</v>
+        <v>0</v>
       </c>
       <c r="E90" s="4">
-        <v>573</v>
+        <v>0</v>
       </c>
       <c r="F90" s="4">
         <v>0</v>
@@ -11787,13 +11788,13 @@
         <v>0</v>
       </c>
       <c r="J90" s="4">
-        <v>311</v>
+        <v>0</v>
       </c>
       <c r="K90" s="4">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="L90" s="4">
-        <v>382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="14.25" thickBot="1">
@@ -11802,13 +11803,13 @@
         <v>73</v>
       </c>
       <c r="C91" s="4">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="D91" s="4">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E91" s="4">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F91" s="4">
         <v>0</v>
@@ -11823,13 +11824,13 @@
         <v>0</v>
       </c>
       <c r="J91" s="4">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="K91" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L91" s="4">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="14.25" thickBot="1">
@@ -11838,13 +11839,13 @@
         <v>74</v>
       </c>
       <c r="C92" s="4">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="D92" s="4">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E92" s="4">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="F92" s="4">
         <v>0</v>
@@ -11859,13 +11860,13 @@
         <v>0</v>
       </c>
       <c r="J92" s="4">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="K92" s="4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L92" s="4">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="14.25" thickBot="1">
@@ -11874,13 +11875,13 @@
         <v>75</v>
       </c>
       <c r="C93" s="4">
-        <v>1761</v>
+        <v>0</v>
       </c>
       <c r="D93" s="4">
-        <v>793</v>
+        <v>0</v>
       </c>
       <c r="E93" s="4">
-        <v>724</v>
+        <v>0</v>
       </c>
       <c r="F93" s="4">
         <v>0</v>
@@ -11895,13 +11896,13 @@
         <v>0</v>
       </c>
       <c r="J93" s="4">
-        <v>418</v>
+        <v>0</v>
       </c>
       <c r="K93" s="4">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="L93" s="4">
-        <v>498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:12" s="21" customFormat="1" ht="14.25" thickBot="1">
@@ -11923,7 +11924,7 @@
         <v>88</v>
       </c>
       <c r="B97" s="4">
-        <v>59342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="14.25" thickBot="1">
@@ -11956,42 +11957,42 @@
         <v>99</v>
       </c>
       <c r="B101" s="18">
-        <v>13188</v>
+        <v>0</v>
       </c>
       <c r="C101" s="18">
-        <v>4928</v>
+        <v>0</v>
       </c>
       <c r="D101" s="18">
-        <v>4015</v>
+        <v>0</v>
       </c>
       <c r="E101" s="18">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="F101" s="19">
-        <v>3074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="20"/>
       <c r="B102" s="7">
         <f>IF($B97=0,0,$B101/$B97)</f>
-        <v>0.22223720130767416</v>
+        <v>0</v>
       </c>
       <c r="C102" s="7">
         <f>IF($B97=0,0,$C101/$B97)</f>
-        <v>8.3044049745542789E-2</v>
+        <v>0</v>
       </c>
       <c r="D102" s="7">
         <f>IF($B97=0,0,$D101/$B97)</f>
-        <v>6.7658656600721248E-2</v>
+        <v>0</v>
       </c>
       <c r="E102" s="7">
         <f>IF($B97=0,0,$E101/$B97)</f>
-        <v>5.5609854740318827E-2</v>
+        <v>0</v>
       </c>
       <c r="F102" s="7">
         <f>IF($B97=0,0,$F101/$B97)</f>
-        <v>5.1801422264163663E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="14.25" thickBot="1">
@@ -12024,42 +12025,42 @@
         <v>99</v>
       </c>
       <c r="B106" s="18">
-        <v>11525</v>
+        <v>0</v>
       </c>
       <c r="C106" s="18">
-        <v>5957</v>
+        <v>0</v>
       </c>
       <c r="D106" s="18">
-        <v>5252</v>
+        <v>0</v>
       </c>
       <c r="E106" s="18">
-        <v>4917</v>
+        <v>0</v>
       </c>
       <c r="F106" s="19">
-        <v>4352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="20"/>
       <c r="B107" s="7">
         <f>IF($B97=0,0,$B106/$B97)</f>
-        <v>0.19421320481278015</v>
+        <v>0</v>
       </c>
       <c r="C107" s="7">
         <f>IF($B97=0,0,$C106/$B97)</f>
-        <v>0.1003842135418422</v>
+        <v>0</v>
       </c>
       <c r="D107" s="7">
         <f>IF($B97=0,0,$D106/$B97)</f>
-        <v>8.8503926392774088E-2</v>
+        <v>0</v>
       </c>
       <c r="E107" s="7">
         <f>IF($B97=0,0,$E106/$B97)</f>
-        <v>8.2858683563075061E-2</v>
+        <v>0</v>
       </c>
       <c r="F107" s="7">
         <f>IF($B97=0,0,$F106/$B97)</f>
-        <v>7.3337602372687133E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:6" s="21" customFormat="1" ht="14.25" thickBot="1">
@@ -12081,7 +12082,7 @@
         <v>88</v>
       </c>
       <c r="B111" s="4">
-        <v>59342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="14.25" thickBot="1">
@@ -12114,42 +12115,42 @@
         <v>99</v>
       </c>
       <c r="B115" s="18">
-        <v>13188</v>
+        <v>0</v>
       </c>
       <c r="C115" s="18">
-        <v>4928</v>
+        <v>0</v>
       </c>
       <c r="D115" s="18">
-        <v>4015</v>
+        <v>0</v>
       </c>
       <c r="E115" s="18">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="F115" s="19">
-        <v>3074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="20"/>
       <c r="B116" s="7">
         <f>IF($B111=0,0,$B115/$B111)</f>
-        <v>0.22223720130767416</v>
+        <v>0</v>
       </c>
       <c r="C116" s="7">
         <f>IF($B111=0,0,$C115/$B111)</f>
-        <v>8.3044049745542789E-2</v>
+        <v>0</v>
       </c>
       <c r="D116" s="7">
         <f>IF($B111=0,0,$D115/$B111)</f>
-        <v>6.7658656600721248E-2</v>
+        <v>0</v>
       </c>
       <c r="E116" s="7">
         <f>IF($B111=0,0,$E115/$B111)</f>
-        <v>5.5609854740318827E-2</v>
+        <v>0</v>
       </c>
       <c r="F116" s="7">
         <f>IF($B111=0,0,$F115/$B111)</f>
-        <v>5.1801422264163663E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="14.25" thickBot="1">
@@ -12182,42 +12183,42 @@
         <v>99</v>
       </c>
       <c r="B120" s="18">
-        <v>11525</v>
+        <v>0</v>
       </c>
       <c r="C120" s="18">
-        <v>5957</v>
+        <v>0</v>
       </c>
       <c r="D120" s="18">
-        <v>5252</v>
+        <v>0</v>
       </c>
       <c r="E120" s="18">
-        <v>4917</v>
+        <v>0</v>
       </c>
       <c r="F120" s="19">
-        <v>4352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="20"/>
       <c r="B121" s="7">
         <f>IF($B111=0,0,$B120/$B111)</f>
-        <v>0.19421320481278015</v>
+        <v>0</v>
       </c>
       <c r="C121" s="7">
         <f>IF($B111=0,0,$C120/$B111)</f>
-        <v>0.1003842135418422</v>
+        <v>0</v>
       </c>
       <c r="D121" s="7">
         <f>IF($B111=0,0,$D120/$B111)</f>
-        <v>8.8503926392774088E-2</v>
+        <v>0</v>
       </c>
       <c r="E121" s="7">
         <f>IF($B111=0,0,$E120/$B111)</f>
-        <v>8.2858683563075061E-2</v>
+        <v>0</v>
       </c>
       <c r="F121" s="7">
         <f>IF($B111=0,0,$F120/$B111)</f>
-        <v>7.3337602372687133E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:6" s="21" customFormat="1" ht="14.25" thickBot="1">
@@ -12239,7 +12240,7 @@
         <v>88</v>
       </c>
       <c r="B125" s="4">
-        <v>59342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="14.25" thickBot="1">
@@ -12272,42 +12273,42 @@
         <v>99</v>
       </c>
       <c r="B129" s="18">
-        <v>13188</v>
+        <v>0</v>
       </c>
       <c r="C129" s="18">
-        <v>4928</v>
+        <v>0</v>
       </c>
       <c r="D129" s="18">
-        <v>4015</v>
+        <v>0</v>
       </c>
       <c r="E129" s="18">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="F129" s="19">
-        <v>3074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="20"/>
       <c r="B130" s="7">
         <f>IF($B125=0,0,$B129/$B125)</f>
-        <v>0.22223720130767416</v>
+        <v>0</v>
       </c>
       <c r="C130" s="7">
         <f>IF($B125=0,0,$C129/$B125)</f>
-        <v>8.3044049745542789E-2</v>
+        <v>0</v>
       </c>
       <c r="D130" s="7">
         <f>IF($B125=0,0,$D129/$B125)</f>
-        <v>6.7658656600721248E-2</v>
+        <v>0</v>
       </c>
       <c r="E130" s="7">
         <f>IF($B125=0,0,$E129/$B125)</f>
-        <v>5.5609854740318827E-2</v>
+        <v>0</v>
       </c>
       <c r="F130" s="7">
         <f>IF($B125=0,0,$F129/$B125)</f>
-        <v>5.1801422264163663E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="14.25" thickBot="1">
@@ -12340,42 +12341,42 @@
         <v>99</v>
       </c>
       <c r="B134" s="18">
-        <v>11525</v>
+        <v>0</v>
       </c>
       <c r="C134" s="18">
-        <v>5957</v>
+        <v>0</v>
       </c>
       <c r="D134" s="18">
-        <v>5252</v>
+        <v>0</v>
       </c>
       <c r="E134" s="18">
-        <v>4917</v>
+        <v>0</v>
       </c>
       <c r="F134" s="19">
-        <v>4352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="20"/>
       <c r="B135" s="7">
         <f>IF($B125=0,0,$B134/$B125)</f>
-        <v>0.19421320481278015</v>
+        <v>0</v>
       </c>
       <c r="C135" s="7">
         <f>IF($B125=0,0,$C134/$B125)</f>
-        <v>0.1003842135418422</v>
+        <v>0</v>
       </c>
       <c r="D135" s="7">
         <f>IF($B125=0,0,$D134/$B125)</f>
-        <v>8.8503926392774088E-2</v>
+        <v>0</v>
       </c>
       <c r="E135" s="7">
         <f>IF($B125=0,0,$E134/$B125)</f>
-        <v>8.2858683563075061E-2</v>
+        <v>0</v>
       </c>
       <c r="F135" s="7">
         <f>IF($B125=0,0,$F134/$B125)</f>
-        <v>7.3337602372687133E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:6" s="21" customFormat="1" ht="14.25" thickBot="1">
@@ -12397,7 +12398,7 @@
         <v>88</v>
       </c>
       <c r="B139" s="4">
-        <v>59342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="14.25" thickBot="1">
@@ -12430,42 +12431,42 @@
         <v>99</v>
       </c>
       <c r="B143" s="18">
-        <v>13188</v>
+        <v>0</v>
       </c>
       <c r="C143" s="18">
-        <v>4928</v>
+        <v>0</v>
       </c>
       <c r="D143" s="18">
-        <v>4015</v>
+        <v>0</v>
       </c>
       <c r="E143" s="18">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="F143" s="19">
-        <v>3074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="20"/>
       <c r="B144" s="7">
         <f>IF($B139=0,0,$B143/$B139)</f>
-        <v>0.22223720130767416</v>
+        <v>0</v>
       </c>
       <c r="C144" s="7">
         <f>IF($B139=0,0,$C143/$B139)</f>
-        <v>8.3044049745542789E-2</v>
+        <v>0</v>
       </c>
       <c r="D144" s="7">
         <f>IF($B139=0,0,$D143/$B139)</f>
-        <v>6.7658656600721248E-2</v>
+        <v>0</v>
       </c>
       <c r="E144" s="7">
         <f>IF($B139=0,0,$E143/$B139)</f>
-        <v>5.5609854740318827E-2</v>
+        <v>0</v>
       </c>
       <c r="F144" s="7">
         <f>IF($B139=0,0,$F143/$B139)</f>
-        <v>5.1801422264163663E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="14.25" thickBot="1">
@@ -12498,42 +12499,42 @@
         <v>99</v>
       </c>
       <c r="B148" s="18">
-        <v>11525</v>
+        <v>0</v>
       </c>
       <c r="C148" s="18">
-        <v>5957</v>
+        <v>0</v>
       </c>
       <c r="D148" s="18">
-        <v>5252</v>
+        <v>0</v>
       </c>
       <c r="E148" s="18">
-        <v>4917</v>
+        <v>0</v>
       </c>
       <c r="F148" s="19">
-        <v>4352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="20"/>
       <c r="B149" s="7">
         <f>IF($B139=0,0,$B148/$B139)</f>
-        <v>0.19421320481278015</v>
+        <v>0</v>
       </c>
       <c r="C149" s="7">
         <f>IF($B139=0,0,$C148/$B139)</f>
-        <v>0.1003842135418422</v>
+        <v>0</v>
       </c>
       <c r="D149" s="7">
         <f>IF($B139=0,0,$D148/$B139)</f>
-        <v>8.8503926392774088E-2</v>
+        <v>0</v>
       </c>
       <c r="E149" s="7">
         <f>IF($B139=0,0,$E148/$B139)</f>
-        <v>8.2858683563075061E-2</v>
+        <v>0</v>
       </c>
       <c r="F149" s="7">
         <f>IF($B139=0,0,$F148/$B139)</f>
-        <v>7.3337602372687133E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:6" s="21" customFormat="1" ht="14.25" thickBot="1">
@@ -12555,7 +12556,7 @@
         <v>88</v>
       </c>
       <c r="B153" s="4">
-        <v>59342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="14.25" thickBot="1">
@@ -12588,42 +12589,42 @@
         <v>99</v>
       </c>
       <c r="B157" s="18">
-        <v>13188</v>
+        <v>0</v>
       </c>
       <c r="C157" s="18">
-        <v>4928</v>
+        <v>0</v>
       </c>
       <c r="D157" s="18">
-        <v>4015</v>
+        <v>0</v>
       </c>
       <c r="E157" s="18">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="F157" s="19">
-        <v>3074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="20"/>
       <c r="B158" s="7">
         <f>IF($B153=0,0,$B157/$B153)</f>
-        <v>0.22223720130767416</v>
+        <v>0</v>
       </c>
       <c r="C158" s="7">
         <f>IF($B153=0,0,$C157/$B153)</f>
-        <v>8.3044049745542789E-2</v>
+        <v>0</v>
       </c>
       <c r="D158" s="7">
         <f>IF($B153=0,0,$D157/$B153)</f>
-        <v>6.7658656600721248E-2</v>
+        <v>0</v>
       </c>
       <c r="E158" s="7">
         <f>IF($B153=0,0,$E157/$B153)</f>
-        <v>5.5609854740318827E-2</v>
+        <v>0</v>
       </c>
       <c r="F158" s="7">
         <f>IF($B153=0,0,$F157/$B153)</f>
-        <v>5.1801422264163663E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="14.25" thickBot="1">
@@ -12656,42 +12657,42 @@
         <v>99</v>
       </c>
       <c r="B162" s="18">
-        <v>11525</v>
+        <v>0</v>
       </c>
       <c r="C162" s="18">
-        <v>5957</v>
+        <v>0</v>
       </c>
       <c r="D162" s="18">
-        <v>5252</v>
+        <v>0</v>
       </c>
       <c r="E162" s="18">
-        <v>4917</v>
+        <v>0</v>
       </c>
       <c r="F162" s="19">
-        <v>4352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="20"/>
       <c r="B163" s="7">
         <f>IF($B153=0,0,$B162/$B153)</f>
-        <v>0.19421320481278015</v>
+        <v>0</v>
       </c>
       <c r="C163" s="7">
         <f>IF($B153=0,0,$C162/$B153)</f>
-        <v>0.1003842135418422</v>
+        <v>0</v>
       </c>
       <c r="D163" s="7">
         <f>IF($B153=0,0,$D162/$B153)</f>
-        <v>8.8503926392774088E-2</v>
+        <v>0</v>
       </c>
       <c r="E163" s="7">
         <f>IF($B153=0,0,$E162/$B153)</f>
-        <v>8.2858683563075061E-2</v>
+        <v>0</v>
       </c>
       <c r="F163" s="7">
         <f>IF($B153=0,0,$F162/$B153)</f>
-        <v>7.3337602372687133E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:6" s="21" customFormat="1" ht="14.25" thickBot="1">
@@ -12713,7 +12714,7 @@
         <v>88</v>
       </c>
       <c r="B167" s="4">
-        <v>59342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="14.25" thickBot="1">
@@ -12746,42 +12747,42 @@
         <v>99</v>
       </c>
       <c r="B171" s="18">
-        <v>13188</v>
+        <v>0</v>
       </c>
       <c r="C171" s="18">
-        <v>4928</v>
+        <v>0</v>
       </c>
       <c r="D171" s="18">
-        <v>4015</v>
+        <v>0</v>
       </c>
       <c r="E171" s="18">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="F171" s="19">
-        <v>3074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="20"/>
       <c r="B172" s="7">
         <f>IF($B167=0,0,$B171/$B167)</f>
-        <v>0.22223720130767416</v>
+        <v>0</v>
       </c>
       <c r="C172" s="7">
         <f>IF($B167=0,0,$C171/$B167)</f>
-        <v>8.3044049745542789E-2</v>
+        <v>0</v>
       </c>
       <c r="D172" s="7">
         <f>IF($B167=0,0,$D171/$B167)</f>
-        <v>6.7658656600721248E-2</v>
+        <v>0</v>
       </c>
       <c r="E172" s="7">
         <f>IF($B167=0,0,$E171/$B167)</f>
-        <v>5.5609854740318827E-2</v>
+        <v>0</v>
       </c>
       <c r="F172" s="7">
         <f>IF($B167=0,0,$F171/$B167)</f>
-        <v>5.1801422264163663E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="14.25" thickBot="1">
@@ -12814,42 +12815,42 @@
         <v>99</v>
       </c>
       <c r="B176" s="18">
-        <v>11525</v>
+        <v>0</v>
       </c>
       <c r="C176" s="18">
-        <v>5957</v>
+        <v>0</v>
       </c>
       <c r="D176" s="18">
-        <v>5252</v>
+        <v>0</v>
       </c>
       <c r="E176" s="18">
-        <v>4917</v>
+        <v>0</v>
       </c>
       <c r="F176" s="19">
-        <v>4352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="20"/>
       <c r="B177" s="7">
         <f>IF($B167=0,0,$B176/$B167)</f>
-        <v>0.19421320481278015</v>
+        <v>0</v>
       </c>
       <c r="C177" s="7">
         <f>IF($B167=0,0,$C176/$B167)</f>
-        <v>0.1003842135418422</v>
+        <v>0</v>
       </c>
       <c r="D177" s="7">
         <f>IF($B167=0,0,$D176/$B167)</f>
-        <v>8.8503926392774088E-2</v>
+        <v>0</v>
       </c>
       <c r="E177" s="7">
         <f>IF($B167=0,0,$E176/$B167)</f>
-        <v>8.2858683563075061E-2</v>
+        <v>0</v>
       </c>
       <c r="F177" s="7">
         <f>IF($B167=0,0,$F176/$B167)</f>
-        <v>7.3337602372687133E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:6" s="21" customFormat="1" ht="14.25" thickBot="1">
@@ -12871,7 +12872,7 @@
         <v>88</v>
       </c>
       <c r="B181" s="4">
-        <v>59342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="14.25" thickBot="1">
@@ -12904,42 +12905,42 @@
         <v>99</v>
       </c>
       <c r="B185" s="18">
-        <v>13188</v>
+        <v>0</v>
       </c>
       <c r="C185" s="18">
-        <v>4928</v>
+        <v>0</v>
       </c>
       <c r="D185" s="18">
-        <v>4015</v>
+        <v>0</v>
       </c>
       <c r="E185" s="18">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="F185" s="19">
-        <v>3074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="20"/>
       <c r="B186" s="7">
         <f>IF($B181=0,0,$B185/$B181)</f>
-        <v>0.22223720130767416</v>
+        <v>0</v>
       </c>
       <c r="C186" s="7">
         <f>IF($B181=0,0,$C185/$B181)</f>
-        <v>8.3044049745542789E-2</v>
+        <v>0</v>
       </c>
       <c r="D186" s="7">
         <f>IF($B181=0,0,$D185/$B181)</f>
-        <v>6.7658656600721248E-2</v>
+        <v>0</v>
       </c>
       <c r="E186" s="7">
         <f>IF($B181=0,0,$E185/$B181)</f>
-        <v>5.5609854740318827E-2</v>
+        <v>0</v>
       </c>
       <c r="F186" s="7">
         <f>IF($B181=0,0,$F185/$B181)</f>
-        <v>5.1801422264163663E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="14.25" thickBot="1">
@@ -12972,42 +12973,42 @@
         <v>99</v>
       </c>
       <c r="B190" s="18">
-        <v>11525</v>
+        <v>0</v>
       </c>
       <c r="C190" s="18">
-        <v>5957</v>
+        <v>0</v>
       </c>
       <c r="D190" s="18">
-        <v>5252</v>
+        <v>0</v>
       </c>
       <c r="E190" s="18">
-        <v>4917</v>
+        <v>0</v>
       </c>
       <c r="F190" s="19">
-        <v>4352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="20"/>
       <c r="B191" s="7">
         <f>IF($B181=0,0,$B190/$B181)</f>
-        <v>0.19421320481278015</v>
+        <v>0</v>
       </c>
       <c r="C191" s="7">
         <f>IF($B181=0,0,$C190/$B181)</f>
-        <v>0.1003842135418422</v>
+        <v>0</v>
       </c>
       <c r="D191" s="7">
         <f>IF($B181=0,0,$D190/$B181)</f>
-        <v>8.8503926392774088E-2</v>
+        <v>0</v>
       </c>
       <c r="E191" s="7">
         <f>IF($B181=0,0,$E190/$B181)</f>
-        <v>8.2858683563075061E-2</v>
+        <v>0</v>
       </c>
       <c r="F191" s="7">
         <f>IF($B181=0,0,$F190/$B181)</f>
-        <v>7.3337602372687133E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:6" s="21" customFormat="1" ht="14.25" thickBot="1">
@@ -13029,7 +13030,7 @@
         <v>88</v>
       </c>
       <c r="B195" s="4">
-        <v>59342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="14.25" thickBot="1">
@@ -13062,42 +13063,42 @@
         <v>99</v>
       </c>
       <c r="B199" s="18">
-        <v>13188</v>
+        <v>0</v>
       </c>
       <c r="C199" s="18">
-        <v>4928</v>
+        <v>0</v>
       </c>
       <c r="D199" s="18">
-        <v>4015</v>
+        <v>0</v>
       </c>
       <c r="E199" s="18">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="F199" s="19">
-        <v>3074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="20"/>
       <c r="B200" s="7">
         <f>IF($B195=0,0,$B199/$B195)</f>
-        <v>0.22223720130767416</v>
+        <v>0</v>
       </c>
       <c r="C200" s="7">
         <f>IF($B195=0,0,$C199/$B195)</f>
-        <v>8.3044049745542789E-2</v>
+        <v>0</v>
       </c>
       <c r="D200" s="7">
         <f>IF($B195=0,0,$D199/$B195)</f>
-        <v>6.7658656600721248E-2</v>
+        <v>0</v>
       </c>
       <c r="E200" s="7">
         <f>IF($B195=0,0,$E199/$B195)</f>
-        <v>5.5609854740318827E-2</v>
+        <v>0</v>
       </c>
       <c r="F200" s="7">
         <f>IF($B195=0,0,$F199/$B195)</f>
-        <v>5.1801422264163663E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="14.25" thickBot="1">
@@ -13130,42 +13131,42 @@
         <v>99</v>
       </c>
       <c r="B204" s="18">
-        <v>11525</v>
+        <v>0</v>
       </c>
       <c r="C204" s="18">
-        <v>5957</v>
+        <v>0</v>
       </c>
       <c r="D204" s="18">
-        <v>5252</v>
+        <v>0</v>
       </c>
       <c r="E204" s="18">
-        <v>4917</v>
+        <v>0</v>
       </c>
       <c r="F204" s="19">
-        <v>4352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="20"/>
       <c r="B205" s="7">
         <f>IF($B195=0,0,$B204/$B195)</f>
-        <v>0.19421320481278015</v>
+        <v>0</v>
       </c>
       <c r="C205" s="7">
         <f>IF($B195=0,0,$C204/$B195)</f>
-        <v>0.1003842135418422</v>
+        <v>0</v>
       </c>
       <c r="D205" s="7">
         <f>IF($B195=0,0,$D204/$B195)</f>
-        <v>8.8503926392774088E-2</v>
+        <v>0</v>
       </c>
       <c r="E205" s="7">
         <f>IF($B195=0,0,$E204/$B195)</f>
-        <v>8.2858683563075061E-2</v>
+        <v>0</v>
       </c>
       <c r="F205" s="7">
         <f>IF($B195=0,0,$F204/$B195)</f>
-        <v>7.3337602372687133E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:6" s="21" customFormat="1" ht="14.25" thickBot="1">
@@ -13187,7 +13188,7 @@
         <v>88</v>
       </c>
       <c r="B209" s="4">
-        <v>59342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:11" ht="14.25" thickBot="1">
@@ -13220,42 +13221,42 @@
         <v>99</v>
       </c>
       <c r="B213" s="18">
-        <v>13188</v>
+        <v>0</v>
       </c>
       <c r="C213" s="18">
-        <v>4928</v>
+        <v>0</v>
       </c>
       <c r="D213" s="18">
-        <v>4015</v>
+        <v>0</v>
       </c>
       <c r="E213" s="18">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="F213" s="19">
-        <v>3074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:11">
       <c r="A214" s="20"/>
       <c r="B214" s="7">
         <f>IF($B209=0,0,$B213/$B209)</f>
-        <v>0.22223720130767416</v>
+        <v>0</v>
       </c>
       <c r="C214" s="7">
         <f>IF($B209=0,0,$C213/$B209)</f>
-        <v>8.3044049745542789E-2</v>
+        <v>0</v>
       </c>
       <c r="D214" s="7">
         <f>IF($B209=0,0,$D213/$B209)</f>
-        <v>6.7658656600721248E-2</v>
+        <v>0</v>
       </c>
       <c r="E214" s="7">
         <f>IF($B209=0,0,$E213/$B209)</f>
-        <v>5.5609854740318827E-2</v>
+        <v>0</v>
       </c>
       <c r="F214" s="7">
         <f>IF($B209=0,0,$F213/$B209)</f>
-        <v>5.1801422264163663E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:11" ht="14.25" thickBot="1">
@@ -13288,42 +13289,42 @@
         <v>99</v>
       </c>
       <c r="B218" s="18">
-        <v>11525</v>
+        <v>0</v>
       </c>
       <c r="C218" s="18">
-        <v>5957</v>
+        <v>0</v>
       </c>
       <c r="D218" s="18">
-        <v>5252</v>
+        <v>0</v>
       </c>
       <c r="E218" s="18">
-        <v>4917</v>
+        <v>0</v>
       </c>
       <c r="F218" s="19">
-        <v>4352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:11">
       <c r="A219" s="20"/>
       <c r="B219" s="7">
         <f>IF($B209=0,0,$B218/$B209)</f>
-        <v>0.19421320481278015</v>
+        <v>0</v>
       </c>
       <c r="C219" s="7">
         <f>IF($B209=0,0,$C218/$B209)</f>
-        <v>0.1003842135418422</v>
+        <v>0</v>
       </c>
       <c r="D219" s="7">
         <f>IF($B209=0,0,$D218/$B209)</f>
-        <v>8.8503926392774088E-2</v>
+        <v>0</v>
       </c>
       <c r="E219" s="7">
         <f>IF($B209=0,0,$E218/$B209)</f>
-        <v>8.2858683563075061E-2</v>
+        <v>0</v>
       </c>
       <c r="F219" s="7">
         <f>IF($B209=0,0,$F218/$B209)</f>
-        <v>7.3337602372687133E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:11" ht="14.25" thickBot="1"/>
@@ -13381,25 +13382,25 @@
         <v>0</v>
       </c>
       <c r="E223" s="7">
-        <v>-0.30076603309890459</v>
+        <v>0</v>
       </c>
       <c r="F223" s="7">
         <v>0</v>
       </c>
       <c r="G223" s="7">
-        <v>-0.20099871892075605</v>
+        <v>0</v>
       </c>
       <c r="H223" s="7">
-        <v>-0.22004875349574526</v>
+        <v>0</v>
       </c>
       <c r="I223" s="7">
         <v>0</v>
       </c>
       <c r="J223" s="7">
-        <v>-0.20087800805289591</v>
+        <v>0</v>
       </c>
       <c r="K223" s="7">
-        <v>7.5942958400143645E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:11">

--- a/rill-analysis/rill-analysis-report-core/src/test/resources/nu/com/rill/analysis/report/excel/bridge_kpi.xlsx
+++ b/rill-analysis/rill-analysis-report-core/src/test/resources/nu/com/rill/analysis/report/excel/bridge_kpi.xlsx
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="164">
   <si>
     <t>日</t>
   </si>
@@ -656,6 +656,46 @@
   </si>
   <si>
     <t>环比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日登录商桥的客户数（主子去重）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近3个月登录过商桥的客户数（主子去重）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日登录商桥的主账号数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日登录商桥的子帐号数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续5工作日登陆商桥的客户数（主子去重）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续5工作日登陆商桥的主账号数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续5工作日登陆商桥的子账号数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日在线沟通客户数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日有留言的客户数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日有在线沟通和留言的去重客户数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -663,7 +703,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,8 +767,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="4"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -783,8 +830,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -913,17 +966,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="0" tint="-4.9989318521683403E-2"/>
@@ -1020,7 +1062,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1032,13 +1074,13 @@
     <xf numFmtId="10" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1053,31 +1095,19 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -1086,13 +1116,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1104,28 +1134,40 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1133,10 +1175,924 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="96">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31E382"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF31E382"/>
       <color rgb="FF4B97BD"/>
     </mruColors>
   </colors>
@@ -3692,24 +4648,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="42360832"/>
-        <c:axId val="42362368"/>
+        <c:axId val="72135040"/>
+        <c:axId val="72136576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42360832"/>
+        <c:axId val="72135040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42362368"/>
+        <c:crossAx val="72136576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42362368"/>
+        <c:axId val="72136576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3717,7 +4673,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42360832"/>
+        <c:crossAx val="72135040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3730,7 +4686,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6285,24 +7241,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="42422272"/>
-        <c:axId val="42423808"/>
+        <c:axId val="72360320"/>
+        <c:axId val="72361856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42422272"/>
+        <c:axId val="72360320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42423808"/>
+        <c:crossAx val="72361856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42423808"/>
+        <c:axId val="72361856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6310,20 +7266,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42422272"/>
+        <c:crossAx val="72360320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6698,17 +7653,17 @@
   <sheetData>
     <row r="1" spans="1:31" ht="6.75" customHeight="1"/>
     <row r="2" spans="1:31" ht="16.5" customHeight="1">
-      <c r="B2" s="45" t="str">
+      <c r="B2" s="29" t="str">
         <f>"商桥KPI数据 - "&amp;_input!A3&amp;_input!A2</f>
         <v>商桥KPI数据 - 08日</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -6734,65 +7689,65 @@
     </row>
     <row r="3" spans="1:31" ht="16.5" customHeight="1"/>
     <row r="4" spans="1:31" ht="16.5" customHeight="1">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
     </row>
     <row r="5" spans="1:31" ht="16.5" customHeight="1">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="36" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="36" t="s">
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="38"/>
-      <c r="O5" s="43" t="s">
+      <c r="I5" s="33"/>
+      <c r="J5" s="34"/>
+      <c r="O5" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="P5" s="43"/>
-      <c r="U5" s="43" t="s">
+      <c r="P5" s="39"/>
+      <c r="U5" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="V5" s="43"/>
+      <c r="V5" s="39"/>
     </row>
     <row r="6" spans="1:31" ht="16.5" customHeight="1">
-      <c r="B6" s="41" t="str">
+      <c r="B6" s="35" t="str">
         <f>_input!B2</f>
         <v>用户登录量</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="39">
+      <c r="C6" s="35"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37">
         <f>_input!B3</f>
         <v>0</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="33">
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="40">
         <f>_input!J223</f>
         <v>0</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="35"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="42"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="11"/>
@@ -6839,20 +7794,22 @@
     </row>
     <row r="7" spans="1:31" ht="16.5" customHeight="1">
       <c r="A7" s="9"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="23"/>
-      <c r="L7" s="36" t="s">
+      <c r="B7" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="44"/>
+      <c r="L7" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="M7" s="37"/>
-      <c r="N7" s="38"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="34"/>
       <c r="O7" s="13">
         <f>_input!B7</f>
         <v>0</v>
@@ -6896,20 +7853,20 @@
     </row>
     <row r="8" spans="1:31" ht="16.5" customHeight="1">
       <c r="A8" s="9"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="26"/>
-      <c r="L8" s="36" t="s">
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="46"/>
+      <c r="L8" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="M8" s="37"/>
-      <c r="N8" s="38"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="34"/>
       <c r="O8" s="14">
         <f>_input!B8</f>
         <v>0</v>
@@ -6953,50 +7910,50 @@
     </row>
     <row r="9" spans="1:31" ht="6" customHeight="1">
       <c r="A9" s="9"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
     </row>
     <row r="10" spans="1:31" ht="16.5" customHeight="1">
-      <c r="B10" s="41" t="str">
+      <c r="B10" s="35" t="str">
         <f>_input!B96</f>
         <v>使用量</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="39">
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37">
         <f>_input!B97</f>
         <v>0</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="33">
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="40">
         <f>_input!K223</f>
         <v>0</v>
       </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="35"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="42"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10" s="11"/>
@@ -7043,20 +8000,22 @@
     </row>
     <row r="11" spans="1:31" ht="16.5" customHeight="1">
       <c r="A11" s="9"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="23"/>
-      <c r="L11" s="36" t="s">
+      <c r="B11" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="44"/>
+      <c r="L11" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="M11" s="37"/>
-      <c r="N11" s="38"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="34"/>
       <c r="O11" s="13">
         <f>_input!B101</f>
         <v>0</v>
@@ -7100,20 +8059,20 @@
     </row>
     <row r="12" spans="1:31" ht="16.5" customHeight="1">
       <c r="A12" s="9"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
-      <c r="L12" s="36" t="s">
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="44"/>
+      <c r="L12" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="M12" s="37"/>
-      <c r="N12" s="38"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="34"/>
       <c r="O12" s="14">
         <f>_input!B102</f>
         <v>0</v>
@@ -7157,50 +8116,50 @@
     </row>
     <row r="13" spans="1:31" ht="6" customHeight="1">
       <c r="A13" s="9"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
     </row>
     <row r="14" spans="1:31" ht="16.5" customHeight="1">
-      <c r="B14" s="41" t="str">
+      <c r="B14" s="35" t="str">
         <f>_input!B110</f>
         <v>主账号登录数</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="39">
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37">
         <f>_input!B111</f>
         <v>0</v>
       </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="33">
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="40">
         <f>_input!H223</f>
         <v>0</v>
       </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="35"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="42"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="11"/>
@@ -7247,20 +8206,22 @@
     </row>
     <row r="15" spans="1:31" ht="16.5" customHeight="1">
       <c r="A15" s="9"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="23"/>
-      <c r="L15" s="36" t="s">
+      <c r="B15" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
+      <c r="L15" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="M15" s="37"/>
-      <c r="N15" s="38"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="34"/>
       <c r="O15" s="13">
         <f>_input!B115</f>
         <v>0</v>
@@ -7304,20 +8265,20 @@
     </row>
     <row r="16" spans="1:31" ht="16.5" customHeight="1">
       <c r="A16" s="9"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="26"/>
-      <c r="L16" s="36" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="44"/>
+      <c r="L16" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="M16" s="37"/>
-      <c r="N16" s="38"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="34"/>
       <c r="O16" s="14">
         <f>_input!B116</f>
         <v>0</v>
@@ -7361,50 +8322,50 @@
     </row>
     <row r="17" spans="1:25" ht="6" customHeight="1">
       <c r="A17" s="9"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
     </row>
     <row r="18" spans="1:25" ht="16.5" customHeight="1">
-      <c r="B18" s="41" t="str">
+      <c r="B18" s="35" t="str">
         <f>_input!B124</f>
         <v>子账号登录数</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="39">
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37">
         <f>_input!B125</f>
         <v>0</v>
       </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="33">
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="40">
         <f>_input!I223</f>
         <v>0</v>
       </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="35"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="42"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
       <c r="N18" s="11"/>
@@ -7451,20 +8412,22 @@
     </row>
     <row r="19" spans="1:25" ht="16.5" customHeight="1">
       <c r="A19" s="9"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="23"/>
-      <c r="L19" s="36" t="s">
+      <c r="B19" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="44"/>
+      <c r="L19" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="M19" s="37"/>
-      <c r="N19" s="38"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="34"/>
       <c r="O19" s="13">
         <f>_input!B129</f>
         <v>0</v>
@@ -7508,20 +8471,20 @@
     </row>
     <row r="20" spans="1:25" ht="16.5" customHeight="1">
       <c r="A20" s="9"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="26"/>
-      <c r="L20" s="36" t="s">
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="44"/>
+      <c r="L20" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="M20" s="37"/>
-      <c r="N20" s="38"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="34"/>
       <c r="O20" s="14">
         <f>_input!B130</f>
         <v>0</v>
@@ -7565,50 +8528,50 @@
     </row>
     <row r="21" spans="1:25" ht="6" customHeight="1">
       <c r="A21" s="9"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
     </row>
     <row r="22" spans="1:25" ht="16.5" customHeight="1">
-      <c r="B22" s="41" t="str">
+      <c r="B22" s="35" t="str">
         <f>_input!B138</f>
         <v>有商机客户数</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="39">
+      <c r="C22" s="35"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37">
         <f>_input!B139</f>
         <v>0</v>
       </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="33">
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="40">
         <f>_input!G223</f>
         <v>0</v>
       </c>
-      <c r="I22" s="34"/>
-      <c r="J22" s="35"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="42"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
       <c r="N22" s="11"/>
@@ -7655,20 +8618,22 @@
     </row>
     <row r="23" spans="1:25" ht="16.5" customHeight="1">
       <c r="A23" s="9"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="23"/>
-      <c r="L23" s="36" t="s">
+      <c r="B23" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="44"/>
+      <c r="L23" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="M23" s="37"/>
-      <c r="N23" s="38"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="34"/>
       <c r="O23" s="13">
         <f>_input!B143</f>
         <v>0</v>
@@ -7712,20 +8677,20 @@
     </row>
     <row r="24" spans="1:25" ht="16.5" customHeight="1">
       <c r="A24" s="9"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
-      <c r="L24" s="36" t="s">
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="44"/>
+      <c r="L24" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="M24" s="37"/>
-      <c r="N24" s="38"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="34"/>
       <c r="O24" s="14">
         <f>_input!B144</f>
         <v>0</v>
@@ -7769,55 +8734,55 @@
     </row>
     <row r="25" spans="1:25" ht="6" customHeight="1">
       <c r="A25" s="9"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
     </row>
     <row r="26" spans="1:25" ht="16.5" customHeight="1">
       <c r="A26" s="9"/>
-      <c r="B26" s="41" t="str">
+      <c r="B26" s="35" t="str">
         <f>_input!B152</f>
         <v>有沟通客户数</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="39">
+      <c r="C26" s="35"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="37">
         <f>_input!B153</f>
         <v>0</v>
       </c>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="33">
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="40">
         <f>_input!E223</f>
         <v>0</v>
       </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
       <c r="O26" s="12" t="str">
         <f>_input!B156</f>
         <v>机械设备</v>
@@ -7861,20 +8826,22 @@
     </row>
     <row r="27" spans="1:25" ht="16.5" customHeight="1">
       <c r="A27" s="9"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="23"/>
-      <c r="L27" s="36" t="s">
+      <c r="B27" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="44"/>
+      <c r="L27" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="M27" s="37"/>
-      <c r="N27" s="38"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="34"/>
       <c r="O27" s="13">
         <f>_input!B157</f>
         <v>0</v>
@@ -7918,20 +8885,20 @@
     </row>
     <row r="28" spans="1:25" ht="16.5" customHeight="1">
       <c r="A28" s="9"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="26"/>
-      <c r="L28" s="36" t="s">
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="44"/>
+      <c r="L28" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="M28" s="37"/>
-      <c r="N28" s="38"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="34"/>
       <c r="O28" s="14">
         <f>_input!B158</f>
         <v>0</v>
@@ -7975,50 +8942,50 @@
     </row>
     <row r="29" spans="1:25" ht="6" customHeight="1">
       <c r="A29" s="9"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="28"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="24"/>
     </row>
     <row r="30" spans="1:25" ht="16.5" customHeight="1">
-      <c r="B30" s="41" t="str">
+      <c r="B30" s="35" t="str">
         <f>_input!B166</f>
         <v>有留言客户数</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="39">
+      <c r="C30" s="35"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="37">
         <f>_input!B167</f>
         <v>0</v>
       </c>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="33">
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="40">
         <f>_input!F223</f>
         <v>0</v>
       </c>
-      <c r="I30" s="34"/>
-      <c r="J30" s="35"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
       <c r="N30" s="11"/>
@@ -8065,20 +9032,22 @@
     </row>
     <row r="31" spans="1:25" ht="16.5" customHeight="1">
       <c r="A31" s="9"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="23"/>
-      <c r="L31" s="36" t="s">
+      <c r="B31" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="44"/>
+      <c r="L31" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="M31" s="37"/>
-      <c r="N31" s="38"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="34"/>
       <c r="O31" s="13">
         <f>_input!B171</f>
         <v>0</v>
@@ -8122,20 +9091,20 @@
     </row>
     <row r="32" spans="1:25" ht="16.5" customHeight="1">
       <c r="A32" s="9"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="26"/>
-      <c r="L32" s="36" t="s">
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="44"/>
+      <c r="L32" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="M32" s="37"/>
-      <c r="N32" s="38"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="34"/>
       <c r="O32" s="14">
         <f>_input!B172</f>
         <v>0</v>
@@ -8179,50 +9148,50 @@
     </row>
     <row r="33" spans="1:25" ht="6" customHeight="1">
       <c r="A33" s="9"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="28"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="24"/>
+      <c r="V33" s="24"/>
+      <c r="W33" s="24"/>
+      <c r="X33" s="24"/>
+      <c r="Y33" s="24"/>
     </row>
     <row r="34" spans="1:25" ht="16.5" customHeight="1">
-      <c r="B34" s="41" t="str">
+      <c r="B34" s="35" t="str">
         <f>_input!B180</f>
         <v>活跃主账号数</v>
       </c>
-      <c r="C34" s="41"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="39">
+      <c r="C34" s="35"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="37">
         <f>_input!B181</f>
         <v>0</v>
       </c>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="33">
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="40">
         <f>_input!B223</f>
         <v>0</v>
       </c>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="42"/>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
       <c r="N34" s="11"/>
@@ -8269,20 +9238,22 @@
     </row>
     <row r="35" spans="1:25" ht="16.5" customHeight="1">
       <c r="A35" s="9"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="23"/>
-      <c r="L35" s="36" t="s">
+      <c r="B35" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="44"/>
+      <c r="L35" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="M35" s="37"/>
-      <c r="N35" s="38"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="34"/>
       <c r="O35" s="13">
         <f>_input!B185</f>
         <v>0</v>
@@ -8326,20 +9297,20 @@
     </row>
     <row r="36" spans="1:25" ht="16.5" customHeight="1">
       <c r="A36" s="9"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="26"/>
-      <c r="L36" s="36" t="s">
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="44"/>
+      <c r="L36" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="M36" s="37"/>
-      <c r="N36" s="38"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="34"/>
       <c r="O36" s="14">
         <f>_input!B186</f>
         <v>0</v>
@@ -8383,50 +9354,50 @@
     </row>
     <row r="37" spans="1:25" ht="6" customHeight="1">
       <c r="A37" s="9"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="28"/>
-      <c r="S37" s="28"/>
-      <c r="T37" s="28"/>
-      <c r="U37" s="28"/>
-      <c r="V37" s="28"/>
-      <c r="W37" s="28"/>
-      <c r="X37" s="28"/>
-      <c r="Y37" s="28"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="24"/>
+      <c r="U37" s="24"/>
+      <c r="V37" s="24"/>
+      <c r="W37" s="24"/>
+      <c r="X37" s="24"/>
+      <c r="Y37" s="24"/>
     </row>
     <row r="38" spans="1:25" ht="16.5" customHeight="1">
-      <c r="B38" s="41" t="str">
+      <c r="B38" s="35" t="str">
         <f>_input!B194</f>
         <v>活跃子账号数</v>
       </c>
-      <c r="C38" s="41"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="39">
+      <c r="C38" s="35"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="37">
         <f>_input!B195</f>
         <v>0</v>
       </c>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="33">
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="40">
         <f>_input!C223</f>
         <v>0</v>
       </c>
-      <c r="I38" s="34"/>
-      <c r="J38" s="35"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="42"/>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="11"/>
@@ -8473,20 +9444,22 @@
     </row>
     <row r="39" spans="1:25" ht="16.5" customHeight="1">
       <c r="A39" s="9"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="23"/>
-      <c r="L39" s="36" t="s">
+      <c r="B39" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="44"/>
+      <c r="L39" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="M39" s="37"/>
-      <c r="N39" s="38"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="34"/>
       <c r="O39" s="13">
         <f>_input!B199</f>
         <v>0</v>
@@ -8530,20 +9503,20 @@
     </row>
     <row r="40" spans="1:25" ht="16.5" customHeight="1">
       <c r="A40" s="9"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="26"/>
-      <c r="L40" s="36" t="s">
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="44"/>
+      <c r="L40" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="M40" s="37"/>
-      <c r="N40" s="38"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="34"/>
       <c r="O40" s="14">
         <f>_input!B200</f>
         <v>0</v>
@@ -8587,50 +9560,50 @@
     </row>
     <row r="41" spans="1:25" ht="6" customHeight="1">
       <c r="A41" s="9"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28"/>
-      <c r="S41" s="28"/>
-      <c r="T41" s="28"/>
-      <c r="U41" s="28"/>
-      <c r="V41" s="28"/>
-      <c r="W41" s="28"/>
-      <c r="X41" s="28"/>
-      <c r="Y41" s="28"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="24"/>
+      <c r="S41" s="24"/>
+      <c r="T41" s="24"/>
+      <c r="U41" s="24"/>
+      <c r="V41" s="24"/>
+      <c r="W41" s="24"/>
+      <c r="X41" s="24"/>
+      <c r="Y41" s="24"/>
     </row>
     <row r="42" spans="1:25" ht="16.5" customHeight="1">
-      <c r="B42" s="41" t="str">
+      <c r="B42" s="35" t="str">
         <f>_input!B208</f>
         <v>活跃用户数</v>
       </c>
-      <c r="C42" s="41"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="39">
+      <c r="C42" s="35"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="37">
         <f>_input!B209</f>
         <v>0</v>
       </c>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="33">
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="40">
         <f>_input!D223</f>
         <v>0</v>
       </c>
-      <c r="I42" s="34"/>
-      <c r="J42" s="35"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="42"/>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="11"/>
@@ -8677,20 +9650,22 @@
     </row>
     <row r="43" spans="1:25" ht="16.5" customHeight="1">
       <c r="A43" s="9"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="23"/>
-      <c r="L43" s="36" t="s">
+      <c r="B43" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="44"/>
+      <c r="L43" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="M43" s="37"/>
-      <c r="N43" s="38"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="34"/>
       <c r="O43" s="13">
         <f>_input!B213</f>
         <v>0</v>
@@ -8734,20 +9709,20 @@
     </row>
     <row r="44" spans="1:25" ht="16.5" customHeight="1">
       <c r="A44" s="9"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="26"/>
-      <c r="L44" s="36" t="s">
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="44"/>
+      <c r="L44" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="M44" s="37"/>
-      <c r="N44" s="38"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="34"/>
       <c r="O44" s="14">
         <f>_input!B214</f>
         <v>0</v>
@@ -8790,30 +9765,30 @@
       </c>
     </row>
     <row r="46" spans="1:25">
-      <c r="B46" s="44" t="s">
+      <c r="B46" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
     </row>
     <row r="61" spans="2:10">
-      <c r="B61" s="44" t="s">
+      <c r="B61" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="44"/>
-      <c r="J61" s="44"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
     </row>
     <row r="75" spans="26:26">
       <c r="Z75" s="5" t="s">
@@ -8821,10 +9796,71 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="60">
+  <mergeCells count="80">
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="B43:J43"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="B24:J24"/>
     <mergeCell ref="U5:V5"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="B61:J61"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B46:J46"/>
     <mergeCell ref="B4:J4"/>
@@ -8838,52 +9874,91 @@
     <mergeCell ref="L23:N23"/>
     <mergeCell ref="L24:N24"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:J26"/>
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="L11:N11"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E26:G26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="H6:J6">
+    <cfRule type="cellIs" dxfId="95" priority="40" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="50" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:J10">
+    <cfRule type="cellIs" dxfId="35" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="18" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:J14">
+    <cfRule type="cellIs" dxfId="31" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="16" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:J18">
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22:J22">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26:J26">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30:J30">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34:J34">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38:J38">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42:J42">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
